--- a/data/Dreamforce V5.xlsx
+++ b/data/Dreamforce V5.xlsx
@@ -83,490 +83,490 @@
     <t>LED2-Z Loc (mm)</t>
   </si>
   <si>
-    <t>Cube-1</t>
-  </si>
-  <si>
-    <t>Cube-2</t>
-  </si>
-  <si>
-    <t>Cube-108</t>
-  </si>
-  <si>
-    <t>Cube-109</t>
-  </si>
-  <si>
-    <t>Cube-137</t>
-  </si>
-  <si>
-    <t>Cube-143</t>
-  </si>
-  <si>
-    <t>Cube-22</t>
-  </si>
-  <si>
-    <t>Cube-23</t>
-  </si>
-  <si>
-    <t>Cube-58</t>
-  </si>
-  <si>
-    <t>Cube-76</t>
-  </si>
-  <si>
-    <t>Cube-84</t>
-  </si>
-  <si>
-    <t>Cube-90</t>
-  </si>
-  <si>
-    <t>Cube-3</t>
-  </si>
-  <si>
-    <t>Cube-4</t>
-  </si>
-  <si>
-    <t>Cube-5</t>
-  </si>
-  <si>
-    <t>Cube-9</t>
-  </si>
-  <si>
-    <t>Cube-10</t>
-  </si>
-  <si>
-    <t>Cube-11</t>
-  </si>
-  <si>
-    <t>Cube-12</t>
-  </si>
-  <si>
-    <t>Cube-13</t>
-  </si>
-  <si>
-    <t>Cube-14</t>
-  </si>
-  <si>
-    <t>Cube-15</t>
-  </si>
-  <si>
-    <t>Cube-16</t>
-  </si>
-  <si>
-    <t>Cube-17</t>
-  </si>
-  <si>
-    <t>Cube-18</t>
-  </si>
-  <si>
-    <t>Cube-19</t>
-  </si>
-  <si>
-    <t>Cube-20</t>
-  </si>
-  <si>
-    <t>Cube-21</t>
-  </si>
-  <si>
-    <t>Cube-24</t>
-  </si>
-  <si>
-    <t>Cube-25</t>
-  </si>
-  <si>
-    <t>Cube-26</t>
-  </si>
-  <si>
-    <t>Cube-27</t>
-  </si>
-  <si>
-    <t>Cube-28</t>
-  </si>
-  <si>
-    <t>Cube-29</t>
-  </si>
-  <si>
-    <t>Cube-30</t>
-  </si>
-  <si>
-    <t>Cube-100</t>
-  </si>
-  <si>
-    <t>Cube-101</t>
-  </si>
-  <si>
-    <t>Cube-31</t>
-  </si>
-  <si>
-    <t>Cube-32</t>
-  </si>
-  <si>
-    <t>Cube-33</t>
-  </si>
-  <si>
-    <t>Cube-34</t>
-  </si>
-  <si>
-    <t>Cube-35</t>
-  </si>
-  <si>
-    <t>Cube-36</t>
-  </si>
-  <si>
-    <t>Cube-37</t>
-  </si>
-  <si>
-    <t>Cube-38</t>
-  </si>
-  <si>
-    <t>Cube-39</t>
-  </si>
-  <si>
-    <t>Cube-40</t>
-  </si>
-  <si>
-    <t>Cube-41</t>
-  </si>
-  <si>
-    <t>Cube-42</t>
-  </si>
-  <si>
-    <t>Cube-43</t>
-  </si>
-  <si>
-    <t>Cube-86</t>
-  </si>
-  <si>
-    <t>Cube-87</t>
-  </si>
-  <si>
-    <t>Cube-88</t>
-  </si>
-  <si>
-    <t>Cube-89</t>
-  </si>
-  <si>
-    <t>Cube-91</t>
-  </si>
-  <si>
-    <t>Cube-92</t>
-  </si>
-  <si>
-    <t>Cube-93</t>
-  </si>
-  <si>
-    <t>Cube-94</t>
-  </si>
-  <si>
-    <t>Cube-95</t>
-  </si>
-  <si>
-    <t>Cube-96</t>
-  </si>
-  <si>
-    <t>Cube-97</t>
-  </si>
-  <si>
-    <t>Cube-98</t>
-  </si>
-  <si>
-    <t>Cube-99</t>
-  </si>
-  <si>
-    <t>Cube-73</t>
-  </si>
-  <si>
-    <t>Cube-74</t>
-  </si>
-  <si>
-    <t>Cube-75</t>
-  </si>
-  <si>
-    <t>Cube-77</t>
-  </si>
-  <si>
-    <t>Cube-78</t>
-  </si>
-  <si>
-    <t>Cube-79</t>
-  </si>
-  <si>
-    <t>Cube-80</t>
-  </si>
-  <si>
-    <t>Cube-81</t>
-  </si>
-  <si>
-    <t>Cube-82</t>
-  </si>
-  <si>
-    <t>Cube-83</t>
-  </si>
-  <si>
-    <t>Cube-85</t>
-  </si>
-  <si>
-    <t>Cube-44</t>
-  </si>
-  <si>
-    <t>Cube-45</t>
-  </si>
-  <si>
-    <t>Cube-46</t>
-  </si>
-  <si>
-    <t>Cube-47</t>
-  </si>
-  <si>
-    <t>Cube-48</t>
-  </si>
-  <si>
-    <t>Cube-49</t>
-  </si>
-  <si>
-    <t>Cube-50</t>
-  </si>
-  <si>
-    <t>Cube-51</t>
-  </si>
-  <si>
-    <t>Cube-52</t>
-  </si>
-  <si>
-    <t>Cube-53</t>
-  </si>
-  <si>
-    <t>Cube-54</t>
-  </si>
-  <si>
-    <t>Cube-55</t>
-  </si>
-  <si>
-    <t>Cube-56</t>
-  </si>
-  <si>
-    <t>Cube-57</t>
-  </si>
-  <si>
-    <t>Cube-59</t>
-  </si>
-  <si>
-    <t>Cube-60</t>
-  </si>
-  <si>
-    <t>Cube-61</t>
-  </si>
-  <si>
-    <t>Cube-64</t>
-  </si>
-  <si>
-    <t>Cube-65</t>
-  </si>
-  <si>
-    <t>Cube-66</t>
-  </si>
-  <si>
-    <t>Cube-67</t>
-  </si>
-  <si>
-    <t>Cube-68</t>
-  </si>
-  <si>
-    <t>Cube-69</t>
-  </si>
-  <si>
-    <t>Cube-70</t>
-  </si>
-  <si>
-    <t>Cube-103</t>
-  </si>
-  <si>
-    <t>Cube-102</t>
-  </si>
-  <si>
-    <t>Cube-107</t>
-  </si>
-  <si>
-    <t>Cube-104</t>
-  </si>
-  <si>
-    <t>Cube-105</t>
-  </si>
-  <si>
-    <t>Cube-106</t>
-  </si>
-  <si>
-    <t>Cube-121</t>
-  </si>
-  <si>
-    <t>Cube-122</t>
-  </si>
-  <si>
-    <t>Cube-124</t>
-  </si>
-  <si>
-    <t>Cube-123</t>
-  </si>
-  <si>
-    <t>Cube-127</t>
-  </si>
-  <si>
-    <t>Cube-126</t>
-  </si>
-  <si>
-    <t>Cube-125</t>
-  </si>
-  <si>
-    <t>Cube-128</t>
-  </si>
-  <si>
-    <t>Cube-129</t>
-  </si>
-  <si>
-    <t>Cube-130</t>
-  </si>
-  <si>
-    <t>Cube-131</t>
-  </si>
-  <si>
-    <t>Cube-132</t>
-  </si>
-  <si>
-    <t>Cube-133</t>
-  </si>
-  <si>
-    <t>Cube-134</t>
-  </si>
-  <si>
-    <t>Cube-135</t>
-  </si>
-  <si>
-    <t>Cube-139</t>
-  </si>
-  <si>
-    <t>Cube-138</t>
-  </si>
-  <si>
-    <t>Cube-145</t>
-  </si>
-  <si>
-    <t>Cube-141</t>
-  </si>
-  <si>
-    <t>Cube-140</t>
-  </si>
-  <si>
-    <t>Cube-147</t>
-  </si>
-  <si>
-    <t>Cube-144</t>
-  </si>
-  <si>
-    <t>Cube-148</t>
-  </si>
-  <si>
-    <t>Cube-146</t>
-  </si>
-  <si>
-    <t>Cube-169</t>
-  </si>
-  <si>
-    <t>Cube-168</t>
-  </si>
-  <si>
-    <t>Cube-156</t>
-  </si>
-  <si>
-    <t>Cube-157</t>
-  </si>
-  <si>
-    <t>Cube-155</t>
-  </si>
-  <si>
-    <t>Cube-158</t>
-  </si>
-  <si>
-    <t>Cube-150</t>
-  </si>
-  <si>
-    <t>Cube-149</t>
-  </si>
-  <si>
-    <t>Cube-114</t>
-  </si>
-  <si>
-    <t>Cube-113</t>
-  </si>
-  <si>
-    <t>Cube-112</t>
-  </si>
-  <si>
-    <t>Cube-110</t>
-  </si>
-  <si>
-    <t>Cube-116</t>
-  </si>
-  <si>
-    <t>Cube-115</t>
-  </si>
-  <si>
-    <t>Cube-111</t>
-  </si>
-  <si>
-    <t>Cube-117</t>
-  </si>
-  <si>
-    <t>Cube-118</t>
-  </si>
-  <si>
-    <t>Cube-119</t>
-  </si>
-  <si>
-    <t>Cube-120</t>
-  </si>
-  <si>
-    <t>Cube-170</t>
-  </si>
-  <si>
-    <t>Cube-171</t>
-  </si>
-  <si>
-    <t>Cube-151</t>
-  </si>
-  <si>
-    <t>Cube-152</t>
-  </si>
-  <si>
-    <t>Cube-153</t>
-  </si>
-  <si>
-    <t>Cube-154</t>
-  </si>
-  <si>
-    <t>Cube-159</t>
-  </si>
-  <si>
-    <t>Cube-160</t>
-  </si>
-  <si>
-    <t>Cube-161</t>
-  </si>
-  <si>
-    <t>Cube-162</t>
-  </si>
-  <si>
-    <t>Cube-163</t>
-  </si>
-  <si>
-    <t>Cube-164</t>
-  </si>
-  <si>
-    <t>Cube-165</t>
-  </si>
-  <si>
-    <t>Cube-166</t>
-  </si>
-  <si>
-    <t>Cube-167</t>
+    <t>Cube-64,Small</t>
+  </si>
+  <si>
+    <t>Cube-65,Small</t>
+  </si>
+  <si>
+    <t>Cube-66,Small</t>
+  </si>
+  <si>
+    <t>Cube-67,Small</t>
+  </si>
+  <si>
+    <t>Cube-68,Small</t>
+  </si>
+  <si>
+    <t>Cube-69,Small</t>
+  </si>
+  <si>
+    <t>Cube-70,Small</t>
+  </si>
+  <si>
+    <t>Cube-73,Small</t>
+  </si>
+  <si>
+    <t>Cube-74,Small</t>
+  </si>
+  <si>
+    <t>Cube-75,Small</t>
+  </si>
+  <si>
+    <t>Cube-77,Large</t>
+  </si>
+  <si>
+    <t>Cube-78,Large</t>
+  </si>
+  <si>
+    <t>Cube-79,Large</t>
+  </si>
+  <si>
+    <t>Cube-80,Large</t>
+  </si>
+  <si>
+    <t>Cube-81,Large</t>
+  </si>
+  <si>
+    <t>Cube-82,Large</t>
+  </si>
+  <si>
+    <t>Cube-83,Large</t>
+  </si>
+  <si>
+    <t>Cube-85,Medium</t>
+  </si>
+  <si>
+    <t>Cube-86,Medium</t>
+  </si>
+  <si>
+    <t>Cube-87,Medium</t>
+  </si>
+  <si>
+    <t>Cube-88,Medium</t>
+  </si>
+  <si>
+    <t>Cube-89,Medium</t>
+  </si>
+  <si>
+    <t>Cube-91,Small</t>
+  </si>
+  <si>
+    <t>Cube-92,Small</t>
+  </si>
+  <si>
+    <t>Cube-9,Large</t>
+  </si>
+  <si>
+    <t>Cube-10,Large</t>
+  </si>
+  <si>
+    <t>Cube-11,Large</t>
+  </si>
+  <si>
+    <t>Cube-12,Large</t>
+  </si>
+  <si>
+    <t>Cube-13,Large</t>
+  </si>
+  <si>
+    <t>Cube-14,Large</t>
+  </si>
+  <si>
+    <t>Cube-15,Large</t>
+  </si>
+  <si>
+    <t>Cube-16,Large</t>
+  </si>
+  <si>
+    <t>Cube-17,Large</t>
+  </si>
+  <si>
+    <t>Cube-18,Large</t>
+  </si>
+  <si>
+    <t>Cube-19,Large</t>
+  </si>
+  <si>
+    <t>Cube-20,Large</t>
+  </si>
+  <si>
+    <t>Cube-21,Large</t>
+  </si>
+  <si>
+    <t>Cube-2,Large</t>
+  </si>
+  <si>
+    <t>Cube-3,Large</t>
+  </si>
+  <si>
+    <t>Cube-4,Large</t>
+  </si>
+  <si>
+    <t>Cube-5,Large</t>
+  </si>
+  <si>
+    <t>Cube-151,Small</t>
+  </si>
+  <si>
+    <t>Cube-152,Small</t>
+  </si>
+  <si>
+    <t>Cube-153,Small</t>
+  </si>
+  <si>
+    <t>Cube-154,Small</t>
+  </si>
+  <si>
+    <t>Cube-155,Small</t>
+  </si>
+  <si>
+    <t>Cube-156,Small</t>
+  </si>
+  <si>
+    <t>Cube-157,Small</t>
+  </si>
+  <si>
+    <t>Cube-158,Small</t>
+  </si>
+  <si>
+    <t>Cube-159,Small</t>
+  </si>
+  <si>
+    <t>Cube-160,Small</t>
+  </si>
+  <si>
+    <t>Cube-161,Small</t>
+  </si>
+  <si>
+    <t>Cube-162,Small</t>
+  </si>
+  <si>
+    <t>Cube-163,Small</t>
+  </si>
+  <si>
+    <t>Cube-164,Small</t>
+  </si>
+  <si>
+    <t>Cube-165,Small</t>
+  </si>
+  <si>
+    <t>Cube-166,Small</t>
+  </si>
+  <si>
+    <t>Cube-167,Medium</t>
+  </si>
+  <si>
+    <t>Cube-168,Medium</t>
+  </si>
+  <si>
+    <t>Cube-169,Medium</t>
+  </si>
+  <si>
+    <t>Cube-170,Medium</t>
+  </si>
+  <si>
+    <t>Cube-171,Medium</t>
+  </si>
+  <si>
+    <t>Cube-84,Medium</t>
+  </si>
+  <si>
+    <t>Cube-109,Small</t>
+  </si>
+  <si>
+    <t>Cube-23,Medium</t>
+  </si>
+  <si>
+    <t>Cube-76,Large</t>
+  </si>
+  <si>
+    <t>Cube-90,Small</t>
+  </si>
+  <si>
+    <t>Cube-137,Medium</t>
+  </si>
+  <si>
+    <t>Cube-108,Small</t>
+  </si>
+  <si>
+    <t>Cube-143,Small</t>
+  </si>
+  <si>
+    <t>Cube-1,Large</t>
+  </si>
+  <si>
+    <t>Cube-22,Large</t>
+  </si>
+  <si>
+    <t>Cube-58,Small</t>
+  </si>
+  <si>
+    <t>Cube-50,Medium</t>
+  </si>
+  <si>
+    <t>Cube-51,Medium</t>
+  </si>
+  <si>
+    <t>Cube-52,Medium</t>
+  </si>
+  <si>
+    <t>Cube-53,Medium</t>
+  </si>
+  <si>
+    <t>Cube-54,Medium</t>
+  </si>
+  <si>
+    <t>Cube-55,Medium</t>
+  </si>
+  <si>
+    <t>Cube-56,Medium</t>
+  </si>
+  <si>
+    <t>Cube-57,Medium</t>
+  </si>
+  <si>
+    <t>Cube-59,Small</t>
+  </si>
+  <si>
+    <t>Cube-60,Small</t>
+  </si>
+  <si>
+    <t>Cube-61,Small</t>
+  </si>
+  <si>
+    <t>Cube-24,Large</t>
+  </si>
+  <si>
+    <t>Cube-25,Large</t>
+  </si>
+  <si>
+    <t>Cube-26,Large</t>
+  </si>
+  <si>
+    <t>Cube-27,Large</t>
+  </si>
+  <si>
+    <t>Cube-28,Large</t>
+  </si>
+  <si>
+    <t>Cube-29,Large</t>
+  </si>
+  <si>
+    <t>Cube-30,Large</t>
+  </si>
+  <si>
+    <t>Cube-31,Large</t>
+  </si>
+  <si>
+    <t>Cube-32,Large</t>
+  </si>
+  <si>
+    <t>Cube-33,Large</t>
+  </si>
+  <si>
+    <t>Cube-34,Large</t>
+  </si>
+  <si>
+    <t>Cube-35,Large</t>
+  </si>
+  <si>
+    <t>Cube-36,Large</t>
+  </si>
+  <si>
+    <t>Cube-37,Large</t>
+  </si>
+  <si>
+    <t>Cube-38,Large</t>
+  </si>
+  <si>
+    <t>Cube-39,Large</t>
+  </si>
+  <si>
+    <t>Cube-40,Large</t>
+  </si>
+  <si>
+    <t>Cube-41,Medium</t>
+  </si>
+  <si>
+    <t>Cube-42,Medium</t>
+  </si>
+  <si>
+    <t>Cube-43,Medium</t>
+  </si>
+  <si>
+    <t>Cube-44,Medium</t>
+  </si>
+  <si>
+    <t>Cube-45,Medium</t>
+  </si>
+  <si>
+    <t>Cube-46,Medium</t>
+  </si>
+  <si>
+    <t>Cube-47,Medium</t>
+  </si>
+  <si>
+    <t>Cube-48,Medium</t>
+  </si>
+  <si>
+    <t>Cube-49,Medium</t>
+  </si>
+  <si>
+    <t>Cube-121,Small</t>
+  </si>
+  <si>
+    <t>Cube-122,Small</t>
+  </si>
+  <si>
+    <t>Cube-123,Small</t>
+  </si>
+  <si>
+    <t>Cube-124,Small</t>
+  </si>
+  <si>
+    <t>Cube-125,Small</t>
+  </si>
+  <si>
+    <t>Cube-126,Small</t>
+  </si>
+  <si>
+    <t>Cube-127,Small</t>
+  </si>
+  <si>
+    <t>Cube-128,Small</t>
+  </si>
+  <si>
+    <t>Cube-129,Small</t>
+  </si>
+  <si>
+    <t>Cube-130,Small</t>
+  </si>
+  <si>
+    <t>Cube-131,Small</t>
+  </si>
+  <si>
+    <t>Cube-132,Small</t>
+  </si>
+  <si>
+    <t>Cube-133,Small</t>
+  </si>
+  <si>
+    <t>Cube-134,Small</t>
+  </si>
+  <si>
+    <t>Cube-135,Small</t>
+  </si>
+  <si>
+    <t>Cube-138,Medium</t>
+  </si>
+  <si>
+    <t>Cube-139,Medium</t>
+  </si>
+  <si>
+    <t>Cube-140,Medium</t>
+  </si>
+  <si>
+    <t>Cube-141,Medium</t>
+  </si>
+  <si>
+    <t>Cube-144,Small</t>
+  </si>
+  <si>
+    <t>Cube-145,Small</t>
+  </si>
+  <si>
+    <t>Cube-146,Small</t>
+  </si>
+  <si>
+    <t>Cube-147,Small</t>
+  </si>
+  <si>
+    <t>Cube-148,Small</t>
+  </si>
+  <si>
+    <t>Cube-149,Small</t>
+  </si>
+  <si>
+    <t>Cube-150,Small</t>
+  </si>
+  <si>
+    <t>Cube-93,Medium</t>
+  </si>
+  <si>
+    <t>Cube-94,Medium</t>
+  </si>
+  <si>
+    <t>Cube-95,Medium</t>
+  </si>
+  <si>
+    <t>Cube-96,Medium</t>
+  </si>
+  <si>
+    <t>Cube-97,Medium</t>
+  </si>
+  <si>
+    <t>Cube-98,Medium</t>
+  </si>
+  <si>
+    <t>Cube-99,Small</t>
+  </si>
+  <si>
+    <t>Cube-100,Small</t>
+  </si>
+  <si>
+    <t>Cube-101,Small</t>
+  </si>
+  <si>
+    <t>Cube-102,Small</t>
+  </si>
+  <si>
+    <t>Cube-103,Small</t>
+  </si>
+  <si>
+    <t>Cube-104,Medium</t>
+  </si>
+  <si>
+    <t>Cube-105,Small</t>
+  </si>
+  <si>
+    <t>Cube-106,Small</t>
+  </si>
+  <si>
+    <t>Cube-107,Medium</t>
+  </si>
+  <si>
+    <t>Cube-110,Small</t>
+  </si>
+  <si>
+    <t>Cube-111,Small</t>
+  </si>
+  <si>
+    <t>Cube-112,Small</t>
+  </si>
+  <si>
+    <t>Cube-113,Small</t>
+  </si>
+  <si>
+    <t>Cube-114,Small</t>
+  </si>
+  <si>
+    <t>Cube-115,Small</t>
+  </si>
+  <si>
+    <t>Cube-116,Small</t>
+  </si>
+  <si>
+    <t>Cube-117,Small</t>
+  </si>
+  <si>
+    <t>Cube-118,Small</t>
+  </si>
+  <si>
+    <t>Cube-119,Small</t>
+  </si>
+  <si>
+    <t>Cube-120,Small</t>
   </si>
 </sst>
 </file>
@@ -886,11 +886,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -964,40 +964,40 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>0.47600366454778348</v>
+        <v>-0.58284728520091844</v>
       </c>
       <c r="C2">
-        <v>0.86874769642157712</v>
+        <v>0.17579131112197516</v>
       </c>
       <c r="D2">
-        <v>0.1367404523149032</v>
+        <v>-0.79333880345533092</v>
       </c>
       <c r="E2">
-        <v>-0.87698529889980847</v>
+        <v>0.1033289482176602</v>
       </c>
       <c r="F2">
-        <v>0.48051720626176708</v>
+        <v>0.9844270276158017</v>
       </c>
       <c r="G2">
-        <v>-1.5962708980028503E-17</v>
+        <v>0.14222009618808965</v>
       </c>
       <c r="H2">
-        <v>-6.5706140129327684E-2</v>
+        <v>0.80598521735460582</v>
       </c>
       <c r="I2">
-        <v>-0.11991936644508037</v>
+        <v>9.1773282294514702E-4</v>
       </c>
       <c r="J2">
-        <v>0.99060690927366113</v>
+        <v>-0.59193495180831679</v>
       </c>
       <c r="K2">
-        <v>-3.9449598051838737</v>
+        <v>42.647142002198038</v>
       </c>
       <c r="L2">
-        <v>-4.4408920985006262E-16</v>
+        <v>-143.86985034475595</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>58.698755211592193</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
@@ -1005,40 +1005,40 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>0.49517526628997227</v>
+        <v>-0.79947588116005719</v>
       </c>
       <c r="C3">
-        <v>0.86874769642157712</v>
+        <v>0.17579131112197519</v>
       </c>
       <c r="D3">
-        <v>8.8823204658560612E-3</v>
+        <v>-0.57440032240360661</v>
       </c>
       <c r="E3">
-        <v>-0.84710274948316311</v>
+        <v>0.14222009618808978</v>
       </c>
       <c r="F3">
-        <v>0.48051720626176708</v>
+        <v>0.9844270276158017</v>
       </c>
       <c r="G3">
-        <v>0.22698049763019684</v>
+        <v>0.10332894821766025</v>
       </c>
       <c r="H3">
-        <v>0.19292067663348189</v>
+        <v>0.58361953332937777</v>
       </c>
       <c r="I3">
-        <v>-0.11991936644508037</v>
+        <v>9.1773282294513358E-4</v>
       </c>
       <c r="J3">
-        <v>0.97385879781346629</v>
+        <v>-0.81202672251771668</v>
       </c>
       <c r="K3">
-        <v>-3.8105385594993955</v>
+        <v>58.698755211592193</v>
       </c>
       <c r="L3">
-        <v>-4.4408920985006262E-16</v>
+        <v>-143.86985034475595</v>
       </c>
       <c r="M3">
-        <v>1.021030729745515</v>
+        <v>42.647142002198009</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
@@ -1046,40 +1046,40 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>0.99338797594636452</v>
+        <v>-0.9378462075952454</v>
       </c>
       <c r="C4">
-        <v>-0.11450829705563033</v>
+        <v>0.17579131112197516</v>
       </c>
       <c r="D4">
-        <v>8.2570667070502469E-3</v>
+        <v>-0.29923553571264372</v>
       </c>
       <c r="E4">
-        <v>0.11451220079446188</v>
+        <v>0.1671897502379521</v>
       </c>
       <c r="F4">
-        <v>0.99342184185229632</v>
+        <v>0.9844270276158017</v>
       </c>
       <c r="G4">
-        <v>4.0655046586735724E-20</v>
+        <v>5.4323242860570824E-2</v>
       </c>
       <c r="H4">
-        <v>-8.2027504164151315E-3</v>
+        <v>0.30412510306547713</v>
       </c>
       <c r="I4">
-        <v>9.4553488073100401E-4</v>
+        <v>9.1773282294514008E-4</v>
       </c>
       <c r="J4">
-        <v>0.99996590984362821</v>
+        <v>-0.95263165990422471</v>
       </c>
       <c r="K4">
-        <v>-1.735839505257317</v>
+        <v>69.004525282599687</v>
       </c>
       <c r="L4">
-        <v>-4.285536324445232</v>
+        <v>-143.86985034475595</v>
       </c>
       <c r="M4">
-        <v>1.7347234759768071E-18</v>
+        <v>22.420929393518172</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
@@ -1087,40 +1087,40 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>0.7629590939253732</v>
+        <v>-0.98441361287225382</v>
       </c>
       <c r="C5">
-        <v>-0.63040152531078475</v>
+        <v>0.17579131112197519</v>
       </c>
       <c r="D5">
-        <v>0.14313398577001063</v>
+        <v>5.2205101104583372E-3</v>
       </c>
       <c r="E5">
-        <v>0.63696009946733234</v>
+        <v>0.17579370665503763</v>
       </c>
       <c r="F5">
-        <v>0.77089677109621269</v>
+        <v>0.9844270276158017</v>
       </c>
       <c r="G5">
-        <v>-3.4850635772720212E-18</v>
+        <v>-2.4754863984555896E-15</v>
       </c>
       <c r="H5">
-        <v>-0.11034152746423244</v>
+        <v>-5.1392112506771746E-3</v>
       </c>
       <c r="I5">
-        <v>9.1170637813221683E-2</v>
+        <v>9.1773282294513358E-4</v>
       </c>
       <c r="J5">
-        <v>0.98970332025187746</v>
+        <v>-0.9999863730442462</v>
       </c>
       <c r="K5">
-        <v>-2.0800313239256303</v>
+        <v>72.555651636147985</v>
       </c>
       <c r="L5">
-        <v>-4.8252912922212703</v>
+        <v>-143.86985034475595</v>
       </c>
       <c r="M5">
-        <v>2.7755575615628914E-17</v>
+        <v>-1.0221923195144817E-12</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
@@ -1128,40 +1128,40 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>-0.93461975490837379</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.17579131112197519</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.30916553603050306</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.16718975023795146</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.9844270276158017</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-5.432324286057328E-2</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>-0.31390046376261183</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>9.1773282294513358E-4</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>-0.94945545267594456</v>
       </c>
       <c r="K6">
-        <v>1.4591486491345353</v>
+        <v>69.004525282599346</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-143.86985034475595</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-22.42092939351916</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
@@ -1169,40 +1169,40 @@
         <v>24</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>-0.79333880345532293</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.17579131112197519</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.58284728520092977</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.14222009618808831</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.9844270276158017</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-0.10332894821766232</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>-0.59193495180832822</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>9.1773282294513358E-4</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>-0.80598521735459761</v>
       </c>
       <c r="K7">
-        <v>1.2192000000000001</v>
+        <v>58.698755211591589</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-143.86985034475595</v>
       </c>
       <c r="M7">
-        <v>-1.0650852374898534</v>
+        <v>-42.647142002198869</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
@@ -1210,40 +1210,40 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>0.88922571329399325</v>
+        <v>-0.57440032240359562</v>
       </c>
       <c r="C8">
-        <v>0.45746872113488696</v>
+        <v>0.17579131112197513</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.79947588116006496</v>
       </c>
       <c r="E8">
-        <v>-0.45746872113488696</v>
+        <v>0.10332894821765821</v>
       </c>
       <c r="F8">
-        <v>0.88922571329399325</v>
+        <v>0.9844270276158017</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>-0.14222009618809109</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>-0.81202672251772456</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>9.1773282294511926E-4</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>-0.58361953332936667</v>
       </c>
       <c r="K8">
-        <v>-2.8566950313400463</v>
+        <v>42.647142002197214</v>
       </c>
       <c r="L8">
-        <v>-1.4327424421116544</v>
+        <v>-143.86985034475595</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>-58.698755211592797</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
@@ -1251,40 +1251,40 @@
         <v>26</v>
       </c>
       <c r="B9">
-        <v>0.95560888959042178</v>
+        <v>0.58284728520092965</v>
       </c>
       <c r="C9">
-        <v>0.29461295616868438</v>
+        <v>0.17579131112197519</v>
       </c>
       <c r="D9">
-        <v>-3.8543732707446831E-3</v>
+        <v>0.79333880345532282</v>
       </c>
       <c r="E9">
-        <v>-0.29461514460658256</v>
+        <v>-0.10332894821766229</v>
       </c>
       <c r="F9">
-        <v>0.95561598802471004</v>
+        <v>0.9844270276158017</v>
       </c>
       <c r="G9">
-        <v>-2.1684043449710089E-19</v>
+        <v>-0.14222009618808829</v>
       </c>
       <c r="H9">
-        <v>3.6833007213387123E-3</v>
+        <v>-0.80598521735459749</v>
       </c>
       <c r="I9">
-        <v>1.1355567385281913E-3</v>
+        <v>9.1773282294513358E-4</v>
       </c>
       <c r="J9">
-        <v>0.99999257187575641</v>
+        <v>0.59193495180832811</v>
       </c>
       <c r="K9">
-        <v>-2.281170391326484</v>
+        <v>-42.647142002198862</v>
       </c>
       <c r="L9">
-        <v>-2.7093607345053763</v>
+        <v>-143.86985034475595</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>-58.698755211591582</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
@@ -1292,40 +1292,40 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>0.98441361287225393</v>
+        <v>0.79947588116006496</v>
       </c>
       <c r="C10">
         <v>0.17579131112197519</v>
       </c>
       <c r="D10">
-        <v>-5.2205101104444681E-3</v>
+        <v>0.57440032240359584</v>
       </c>
       <c r="E10">
-        <v>-0.17579370665503763</v>
+        <v>-0.14222009618809117</v>
       </c>
       <c r="F10">
         <v>0.9844270276158017</v>
       </c>
       <c r="G10">
-        <v>-1.1639066494557066E-18</v>
+        <v>-0.10332894821765831</v>
       </c>
       <c r="H10">
-        <v>5.1392112506630861E-3</v>
+        <v>-0.58361953332936667</v>
       </c>
       <c r="I10">
         <v>9.1773282294513358E-4</v>
       </c>
       <c r="J10">
-        <v>0.99998637304424631</v>
+        <v>0.81202672251772456</v>
       </c>
       <c r="K10">
-        <v>-1.8429172373926337</v>
+        <v>-58.698755211592776</v>
       </c>
       <c r="L10">
-        <v>-3.6543015073598157</v>
+        <v>-143.86985034475595</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-42.647142002197214</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
@@ -1333,40 +1333,40 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.93784620759524939</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.17579131112197513</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.29923553571263084</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>-0.16718975023795285</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.9844270276158017</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>-5.4323242860568534E-2</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>-0.30412510306546409</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>9.1773282294514008E-4</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0.95263165990422871</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>-69.004525282599985</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-143.86985034475595</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-22.420929393517227</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
@@ -1404,10 +1404,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-29.999939999999995</v>
       </c>
       <c r="M12">
-        <v>-1.0650852374898534</v>
+        <v>-3.6739330495612651E-15</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
@@ -1445,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-59.99987999999999</v>
       </c>
       <c r="M13">
-        <v>-2.1505515112707201</v>
+        <v>-7.3478660991225302E-15</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
@@ -1456,40 +1456,40 @@
         <v>31</v>
       </c>
       <c r="B14">
-        <v>0.4806014919503182</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0.86874769642157712</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-0.11958112684421097</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>-0.75949154759272319</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.48051720626176708</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.43849264944990435</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.43840026810021276</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>-0.11991936644508037</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.89074381866004093</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>-3.4164354081977444</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>-4.4408920985006262E-16</v>
+        <v>-89.999819999999971</v>
       </c>
       <c r="M14">
-        <v>1.9724799025919373</v>
+        <v>-1.1021799148683795E-14</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
@@ -1497,40 +1497,40 @@
         <v>32</v>
       </c>
       <c r="B15">
-        <v>0.43327552016576809</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0.86874769642157712</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>-0.23989531797700048</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>-0.62012225185296588</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.48051720626176708</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.62012225185296577</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.65400360578661165</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>-0.11991936644508037</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.74692612028869398</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>-2.7895078297538789</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>-4.4408920985006262E-16</v>
+        <v>-119.99975999999998</v>
       </c>
       <c r="M15">
-        <v>2.7895078297538785</v>
+        <v>-1.469573219824506E-14</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
@@ -1538,40 +1538,40 @@
         <v>33</v>
       </c>
       <c r="B16">
-        <v>0.35642253770357268</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0.86874769642157712</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>-0.34386103963541498</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>-0.43849264944990451</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.48051720626176708</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.75949154759272308</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0.82503767853071308</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>-0.11991936644508037</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.55220664117344875</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>-1.9724799025919382</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>-4.4408920985006262E-16</v>
+        <v>-149.99969999999996</v>
       </c>
       <c r="M16">
-        <v>3.4164354081977439</v>
+        <v>-1.8369665247806326E-14</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
@@ -1579,40 +1579,40 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <v>-0.11958112684421082</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0.86874769642157712</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>-0.48060149195031837</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.43849264944990396</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.48051720626176719</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.75949154759272319</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0.89074381866004115</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>-0.11991936644508037</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>-0.43840026810021243</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>1.9724799025919364</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>-4.4408920985006262E-16</v>
+        <v>-179.99963999999994</v>
       </c>
       <c r="M17">
-        <v>3.4164354081977457</v>
+        <v>-2.2043598297367589E-14</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
@@ -1620,40 +1620,40 @@
         <v>35</v>
       </c>
       <c r="B18">
-        <v>-0.23989531797700048</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0.86874769642157712</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>-0.43327552016576809</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.62012225185296577</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.48051720626176708</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.62012225185296588</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0.74692612028869398</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>-0.11991936644508037</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>-0.65400360578661165</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>2.7895078297538785</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>-4.4408920985006262E-16</v>
+        <v>-209.99957999999992</v>
       </c>
       <c r="M18">
-        <v>2.7895078297538789</v>
+        <v>-2.5717531346928855E-14</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
@@ -1661,40 +1661,40 @@
         <v>36</v>
       </c>
       <c r="B19">
-        <v>-0.34386103963541509</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0.86874769642157712</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>-0.35642253770357257</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.7594915475927233</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.48051720626176708</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.43849264944990418</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0.55220664117344842</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>-0.11991936644508037</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>-0.8250376785307133</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>3.4164354081977448</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>-4.4408920985006262E-16</v>
+        <v>-23.999952</v>
       </c>
       <c r="M19">
-        <v>1.9724799025919366</v>
+        <v>-41.932405799975527</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
@@ -1702,40 +1702,40 @@
         <v>37</v>
       </c>
       <c r="B20">
-        <v>-0.4243931996999124</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0.86874769642157712</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>-0.25527994831297146</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.84710274948316311</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.48051720626176708</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.22698049763019665</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0.31985519202685392</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>-0.11991936644508037</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>-0.93984679692217643</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>3.8105385594993955</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>-4.4408920985006262E-16</v>
+        <v>-47.999904000000001</v>
       </c>
       <c r="M20">
-        <v>1.0210307297455141</v>
+        <v>-41.932405799975534</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
@@ -1743,40 +1743,40 @@
         <v>38</v>
       </c>
       <c r="B21">
-        <v>-0.47600366454778542</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0.86874769642157712</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>-0.13674045231489648</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.87698529889980847</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.48051720626176708</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>-1.2339348237133459E-14</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>6.5706140129313723E-2</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>-0.11991936644508037</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>-0.99060690927366202</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>3.9449598051838737</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>-4.4408920985006262E-16</v>
+        <v>-71.999856000000008</v>
       </c>
       <c r="M21">
-        <v>-5.5578132408961293E-14</v>
+        <v>-41.932405799975534</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
@@ -1784,40 +1784,40 @@
         <v>39</v>
       </c>
       <c r="B22">
-        <v>-0.49517526628997238</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0.86874769642157712</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>-8.8823204658490529E-3</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.84710274948315989</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.48051720626176708</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>-0.22698049763020881</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>-0.19292067663349566</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>-0.11991936644508037</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>-0.97385879781346363</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>3.8105385594993813</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>-4.4408920985006262E-16</v>
+        <v>-95.999808000000002</v>
       </c>
       <c r="M22">
-        <v>-1.021030729745569</v>
+        <v>-41.932405799975534</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
@@ -1825,40 +1825,40 @@
         <v>40</v>
       </c>
       <c r="B23">
-        <v>-0.48060149195031665</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>0.86874769642157712</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.11958112684421739</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.75949154759271742</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.48051720626176708</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>-0.43849264944991445</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>-0.43840026810022464</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>-0.11991936644508037</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>-0.89074381866003516</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>3.4164354081977182</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>-4.4408920985006262E-16</v>
+        <v>-119.99975999999999</v>
       </c>
       <c r="M23">
-        <v>-1.9724799025919828</v>
+        <v>-41.932405799975534</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
@@ -1866,40 +1866,40 @@
         <v>41</v>
       </c>
       <c r="B24">
-        <v>-0.43327552016576498</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0.86874769642157712</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.23989531797700619</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.62012225185295766</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.48051720626176708</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>-0.62012225185297398</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>-0.65400360578662142</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>-0.11991936644508037</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>-0.74692612028868544</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>2.789507829753842</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>-4.4408920985006262E-16</v>
+        <v>-19.999959999999998</v>
       </c>
       <c r="M24">
-        <v>-2.7895078297539149</v>
+        <v>-84.667212998728246</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
@@ -1907,40 +1907,40 @@
         <v>42</v>
       </c>
       <c r="B25">
-        <v>-0.35642253770356752</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0.86874769642157712</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.34386103963542025</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.43849264944989313</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.48051720626176708</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>-0.75949154759272963</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>-0.82503767853072141</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>-0.11991936644508037</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>-0.55220664117343643</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>1.9724799025918869</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>-4.4408920985006262E-16</v>
+        <v>-39.999919999999996</v>
       </c>
       <c r="M25">
-        <v>-3.4164354081977732</v>
+        <v>-84.667212998728246</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
@@ -1948,40 +1948,40 @@
         <v>43</v>
       </c>
       <c r="B26">
-        <v>0.11958112684421739</v>
+        <v>-0.11958112684421082</v>
       </c>
       <c r="C26">
         <v>0.86874769642157712</v>
       </c>
       <c r="D26">
-        <v>0.48060149195031665</v>
+        <v>-0.48060149195031837</v>
       </c>
       <c r="E26">
-        <v>-0.43849264944991445</v>
+        <v>0.43849264944990396</v>
       </c>
       <c r="F26">
-        <v>0.48051720626176708</v>
+        <v>0.48051720626176719</v>
       </c>
       <c r="G26">
-        <v>-0.75949154759271742</v>
+        <v>0.75949154759272319</v>
       </c>
       <c r="H26">
-        <v>-0.89074381866003516</v>
+        <v>0.89074381866004115</v>
       </c>
       <c r="I26">
         <v>-0.11991936644508037</v>
       </c>
       <c r="J26">
-        <v>0.43840026810022464</v>
+        <v>-0.43840026810021243</v>
       </c>
       <c r="K26">
-        <v>-1.9724799025919828</v>
+        <v>77.656533765044529</v>
       </c>
       <c r="L26">
-        <v>-4.4408920985006262E-16</v>
+        <v>-1.7483792191796964E-14</v>
       </c>
       <c r="M26">
-        <v>-3.4164354081977182</v>
+        <v>134.50506202074524</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
@@ -1989,40 +1989,40 @@
         <v>44</v>
       </c>
       <c r="B27">
-        <v>0.23989531797700697</v>
+        <v>-0.23989531797700048</v>
       </c>
       <c r="C27">
         <v>0.86874769642157712</v>
       </c>
       <c r="D27">
-        <v>0.43327552016576454</v>
+        <v>-0.43327552016576809</v>
       </c>
       <c r="E27">
-        <v>-0.62012225185297509</v>
+        <v>0.62012225185296577</v>
       </c>
       <c r="F27">
         <v>0.48051720626176708</v>
       </c>
       <c r="G27">
-        <v>-0.62012225185295666</v>
+        <v>0.62012225185296588</v>
       </c>
       <c r="H27">
-        <v>-0.74692612028868433</v>
+        <v>0.74692612028869398</v>
       </c>
       <c r="I27">
         <v>-0.11991936644508037</v>
       </c>
       <c r="J27">
-        <v>0.65400360578662287</v>
+        <v>-0.65400360578661165</v>
       </c>
       <c r="K27">
-        <v>-2.7895078297539202</v>
+        <v>109.82292325741018</v>
       </c>
       <c r="L27">
-        <v>-4.4408920985006262E-16</v>
+        <v>-1.7483792191796964E-14</v>
       </c>
       <c r="M27">
-        <v>-2.7895078297538372</v>
+        <v>109.82292325741021</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
@@ -2030,40 +2030,40 @@
         <v>45</v>
       </c>
       <c r="B28">
-        <v>0.34386103963541964</v>
+        <v>-0.34386103963541509</v>
       </c>
       <c r="C28">
         <v>0.86874769642157712</v>
       </c>
       <c r="D28">
-        <v>0.35642253770356813</v>
+        <v>-0.35642253770357257</v>
       </c>
       <c r="E28">
-        <v>-0.75949154759272886</v>
+        <v>0.7594915475927233</v>
       </c>
       <c r="F28">
         <v>0.48051720626176708</v>
       </c>
       <c r="G28">
-        <v>-0.43849264944989452</v>
+        <v>0.43849264944990418</v>
       </c>
       <c r="H28">
-        <v>-0.55220664117343787</v>
+        <v>0.55220664117344842</v>
       </c>
       <c r="I28">
         <v>-0.11991936644508037</v>
       </c>
       <c r="J28">
-        <v>0.82503767853072041</v>
+        <v>-0.8250376785307133</v>
       </c>
       <c r="K28">
-        <v>-3.4164354081977697</v>
+        <v>134.50506202074521</v>
       </c>
       <c r="L28">
-        <v>-4.4408920985006262E-16</v>
+        <v>-1.7483792191796964E-14</v>
       </c>
       <c r="M28">
-        <v>-1.9724799025918931</v>
+        <v>77.656533765044543</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
@@ -2071,40 +2071,40 @@
         <v>46</v>
       </c>
       <c r="B29">
-        <v>0.42439319969991585</v>
+        <v>-0.4243931996999124</v>
       </c>
       <c r="C29">
         <v>0.86874769642157712</v>
       </c>
       <c r="D29">
-        <v>0.25527994831296569</v>
+        <v>-0.25527994831297146</v>
       </c>
       <c r="E29">
-        <v>-0.84710274948316622</v>
+        <v>0.84710274948316311</v>
       </c>
       <c r="F29">
         <v>0.48051720626176708</v>
       </c>
       <c r="G29">
-        <v>-0.22698049763018513</v>
+        <v>0.22698049763019665</v>
       </c>
       <c r="H29">
-        <v>-0.3198551920268411</v>
+        <v>0.31985519202685392</v>
       </c>
       <c r="I29">
         <v>-0.11991936644508037</v>
       </c>
       <c r="J29">
-        <v>0.93984679692218076</v>
+        <v>-0.93984679692217643</v>
       </c>
       <c r="K29">
-        <v>-3.8105385594994097</v>
+        <v>150.02090308749118</v>
       </c>
       <c r="L29">
-        <v>-4.4408920985006262E-16</v>
+        <v>-1.7483792191796964E-14</v>
       </c>
       <c r="M29">
-        <v>-1.0210307297454622</v>
+        <v>40.197979830080889</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
@@ -2112,40 +2112,40 @@
         <v>47</v>
       </c>
       <c r="B30">
-        <v>0.85892608187098674</v>
+        <v>-0.47600366454778542</v>
       </c>
       <c r="C30">
-        <v>0.45746872113488696</v>
+        <v>0.86874769642157712</v>
       </c>
       <c r="D30">
-        <v>-0.23014854999535891</v>
+        <v>-0.13674045231489648</v>
       </c>
       <c r="E30">
-        <v>-0.44188085246361908</v>
+        <v>0.87698529889980847</v>
       </c>
       <c r="F30">
-        <v>0.88922571329399325</v>
+        <v>0.48051720626176708</v>
       </c>
       <c r="G30">
-        <v>0.11840161756840263</v>
+        <v>-1.2339348237133459E-14</v>
       </c>
       <c r="H30">
-        <v>0.25881904510252041</v>
+        <v>6.5706140129313723E-2</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>-0.11991936644508037</v>
       </c>
       <c r="J30">
-        <v>0.96592582628906842</v>
+        <v>-0.99060690927366202</v>
       </c>
       <c r="K30">
-        <v>-2.7593555086030106</v>
+        <v>155.31306753008909</v>
       </c>
       <c r="L30">
-        <v>-1.4327424421116544</v>
+        <v>-1.7483792191796964E-14</v>
       </c>
       <c r="M30">
-        <v>0.73936708016054542</v>
+        <v>-2.188111072940806E-12</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
@@ -2153,40 +2153,40 @@
         <v>48</v>
       </c>
       <c r="B31">
-        <v>0.77009205741093589</v>
+        <v>-0.49517526628997238</v>
       </c>
       <c r="C31">
-        <v>0.4574687211348869</v>
+        <v>0.86874769642157712</v>
       </c>
       <c r="D31">
-        <v>-0.44461285664699685</v>
+        <v>-8.8823204658490529E-3</v>
       </c>
       <c r="E31">
-        <v>-0.3961795339395911</v>
+        <v>0.84710274948315989</v>
       </c>
       <c r="F31">
-        <v>0.88922571329399325</v>
+        <v>0.48051720626176708</v>
       </c>
       <c r="G31">
-        <v>0.22873436056744353</v>
+        <v>-0.22698049763020881</v>
       </c>
       <c r="H31">
-        <v>0.50000000000000022</v>
+        <v>-0.19292067663349566</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>-0.11991936644508037</v>
       </c>
       <c r="J31">
-        <v>0.86602540378443849</v>
+        <v>-0.97385879781346363</v>
       </c>
       <c r="K31">
-        <v>-2.4739704680052634</v>
+        <v>150.02090308749064</v>
       </c>
       <c r="L31">
-        <v>-1.4327424421116544</v>
+        <v>-1.7483792191796964E-14</v>
       </c>
       <c r="M31">
-        <v>1.428347515670024</v>
+        <v>-40.19797983008305</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
@@ -2194,40 +2194,40 @@
         <v>49</v>
       </c>
       <c r="B32">
-        <v>0.62877753187562746</v>
+        <v>-0.48060149195031665</v>
       </c>
       <c r="C32">
-        <v>0.45746872113488696</v>
+        <v>0.86874769642157712</v>
       </c>
       <c r="D32">
-        <v>-0.62877753187562724</v>
+        <v>0.11958112684421739</v>
       </c>
       <c r="E32">
-        <v>-0.32347923489521629</v>
+        <v>0.75949154759271742</v>
       </c>
       <c r="F32">
-        <v>0.88922571329399325</v>
+        <v>0.48051720626176708</v>
       </c>
       <c r="G32">
-        <v>0.32347923489521624</v>
+        <v>-0.43849264944991445</v>
       </c>
       <c r="H32">
-        <v>0.70710678118654746</v>
+        <v>-0.43840026810022464</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>-0.11991936644508037</v>
       </c>
       <c r="J32">
-        <v>0.70710678118654768</v>
+        <v>-0.89074381866003516</v>
       </c>
       <c r="K32">
-        <v>-2.0199884284424643</v>
+        <v>134.50506202074416</v>
       </c>
       <c r="L32">
-        <v>-1.4327424421116544</v>
+        <v>-1.7483792191796964E-14</v>
       </c>
       <c r="M32">
-        <v>2.0199884284424634</v>
+        <v>-77.656533765046362</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
@@ -2235,40 +2235,40 @@
         <v>50</v>
       </c>
       <c r="B33">
-        <v>0.4446128566469969</v>
+        <v>-0.43327552016576498</v>
       </c>
       <c r="C33">
-        <v>0.45746872113488696</v>
+        <v>0.86874769642157712</v>
       </c>
       <c r="D33">
-        <v>-0.77009205741093578</v>
+        <v>0.23989531797700619</v>
       </c>
       <c r="E33">
-        <v>-0.22873436056744362</v>
+        <v>0.62012225185295766</v>
       </c>
       <c r="F33">
-        <v>0.88922571329399325</v>
+        <v>0.48051720626176708</v>
       </c>
       <c r="G33">
-        <v>0.39617953393959116</v>
+        <v>-0.62012225185297398</v>
       </c>
       <c r="H33">
-        <v>0.86602540378443849</v>
+        <v>-0.65400360578662142</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>-0.11991936644508037</v>
       </c>
       <c r="J33">
-        <v>0.50000000000000033</v>
+        <v>-0.74692612028868544</v>
       </c>
       <c r="K33">
-        <v>-1.428347515670024</v>
+        <v>109.82292325740876</v>
       </c>
       <c r="L33">
-        <v>-1.4327424421116544</v>
+        <v>-1.7483792191796964E-14</v>
       </c>
       <c r="M33">
-        <v>2.473970468005263</v>
+        <v>-109.82292325741162</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
@@ -2276,40 +2276,40 @@
         <v>51</v>
       </c>
       <c r="B34">
-        <v>-0.4446128566469964</v>
+        <v>-0.35642253770356752</v>
       </c>
       <c r="C34">
-        <v>0.45746872113488685</v>
+        <v>0.86874769642157712</v>
       </c>
       <c r="D34">
-        <v>-0.770092057410936</v>
+        <v>0.34386103963542025</v>
       </c>
       <c r="E34">
-        <v>0.22873436056744331</v>
+        <v>0.43849264944989313</v>
       </c>
       <c r="F34">
-        <v>0.88922571329399336</v>
+        <v>0.48051720626176708</v>
       </c>
       <c r="G34">
-        <v>0.39617953393959121</v>
+        <v>-0.75949154759272963</v>
       </c>
       <c r="H34">
-        <v>0.86602540378443882</v>
+        <v>-0.82503767853072141</v>
       </c>
       <c r="I34">
-        <v>2.7755575615628914E-17</v>
+        <v>-0.11991936644508037</v>
       </c>
       <c r="J34">
-        <v>-0.49999999999999978</v>
+        <v>-0.55220664117343643</v>
       </c>
       <c r="K34">
-        <v>1.4283475156700229</v>
+        <v>77.656533765042582</v>
       </c>
       <c r="L34">
-        <v>-1.4327424421116544</v>
+        <v>-1.7483792191796964E-14</v>
       </c>
       <c r="M34">
-        <v>2.4739704680052639</v>
+        <v>-134.50506202074632</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
@@ -2317,40 +2317,40 @@
         <v>52</v>
       </c>
       <c r="B35">
-        <v>-0.62877753187562724</v>
+        <v>0.11958112684421739</v>
       </c>
       <c r="C35">
-        <v>0.45746872113488696</v>
+        <v>0.86874769642157712</v>
       </c>
       <c r="D35">
-        <v>-0.62877753187562735</v>
+        <v>0.48060149195031665</v>
       </c>
       <c r="E35">
-        <v>0.32347923489521624</v>
+        <v>-0.43849264944991445</v>
       </c>
       <c r="F35">
-        <v>0.88922571329399325</v>
+        <v>0.48051720626176708</v>
       </c>
       <c r="G35">
-        <v>0.32347923489521624</v>
+        <v>-0.75949154759271742</v>
       </c>
       <c r="H35">
-        <v>0.70710678118654757</v>
+        <v>-0.89074381866003516</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>-0.11991936644508037</v>
       </c>
       <c r="J35">
-        <v>-0.70710678118654746</v>
+        <v>0.43840026810022464</v>
       </c>
       <c r="K35">
-        <v>2.0199884284424634</v>
+        <v>-77.656533765046362</v>
       </c>
       <c r="L35">
-        <v>-1.4327424421116544</v>
+        <v>-1.7483792191796964E-14</v>
       </c>
       <c r="M35">
-        <v>2.0199884284424638</v>
+        <v>-134.50506202074416</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
@@ -2358,40 +2358,40 @@
         <v>53</v>
       </c>
       <c r="B36">
-        <v>-0.770092057410936</v>
+        <v>0.23989531797700697</v>
       </c>
       <c r="C36">
-        <v>0.45746872113488696</v>
+        <v>0.86874769642157712</v>
       </c>
       <c r="D36">
-        <v>-0.44461285664699657</v>
+        <v>0.43327552016576454</v>
       </c>
       <c r="E36">
-        <v>0.39617953393959127</v>
+        <v>-0.62012225185297509</v>
       </c>
       <c r="F36">
-        <v>0.88922571329399325</v>
+        <v>0.48051720626176708</v>
       </c>
       <c r="G36">
-        <v>0.22873436056744345</v>
+        <v>-0.62012225185295666</v>
       </c>
       <c r="H36">
-        <v>0.49999999999999994</v>
+        <v>-0.74692612028868433</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>-0.11991936644508037</v>
       </c>
       <c r="J36">
-        <v>-0.86602540378443871</v>
+        <v>0.65400360578662287</v>
       </c>
       <c r="K36">
-        <v>2.4739704680052634</v>
+        <v>-109.82292325741183</v>
       </c>
       <c r="L36">
-        <v>-1.4327424421116544</v>
+        <v>-1.7483792191796964E-14</v>
       </c>
       <c r="M36">
-        <v>1.4283475156700229</v>
+        <v>-109.82292325740856</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
@@ -2399,40 +2399,40 @@
         <v>54</v>
       </c>
       <c r="B37">
-        <v>-1</v>
+        <v>0.34386103963541964</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.86874769642157712</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>0.35642253770356813</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>-0.75949154759272886</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.48051720626176708</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>-0.43849264944989452</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>-0.55220664117343787</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>-0.11991936644508037</v>
       </c>
       <c r="J37">
-        <v>-1</v>
+        <v>0.82503767853072041</v>
       </c>
       <c r="K37">
-        <v>-8.3266726846886741E-17</v>
+        <v>-134.50506202074618</v>
       </c>
       <c r="L37">
-        <v>-0.50800000000000001</v>
+        <v>-1.7483792191796964E-14</v>
       </c>
       <c r="M37">
-        <v>2.1505515112707201</v>
+        <v>-77.656533765042823</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
@@ -2440,40 +2440,40 @@
         <v>55</v>
       </c>
       <c r="B38">
-        <v>-1</v>
+        <v>0.42439319969991585</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.86874769642157712</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>0.25527994831296569</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>-0.84710274948316622</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.48051720626176708</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>-0.22698049763018513</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>-0.3198551920268411</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>-0.11991936644508037</v>
       </c>
       <c r="J38">
-        <v>-1</v>
+        <v>0.93984679692218076</v>
       </c>
       <c r="K38">
-        <v>-8.3266726846886741E-17</v>
+        <v>-150.02090308749175</v>
       </c>
       <c r="L38">
-        <v>-1.016</v>
+        <v>-1.7483792191796964E-14</v>
       </c>
       <c r="M38">
-        <v>2.1505515112707201</v>
+        <v>-40.197979830078843</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
@@ -2481,40 +2481,40 @@
         <v>56</v>
       </c>
       <c r="B39">
-        <v>-0.85892608187098662</v>
+        <v>0.49517526628997227</v>
       </c>
       <c r="C39">
-        <v>0.45746872113488696</v>
+        <v>0.86874769642157712</v>
       </c>
       <c r="D39">
-        <v>-0.23014854999535905</v>
+        <v>8.8823204658560612E-3</v>
       </c>
       <c r="E39">
-        <v>0.44188085246361908</v>
+        <v>-0.84710274948316311</v>
       </c>
       <c r="F39">
-        <v>0.88922571329399325</v>
+        <v>0.48051720626176708</v>
       </c>
       <c r="G39">
-        <v>0.11840161756840271</v>
+        <v>0.22698049763019684</v>
       </c>
       <c r="H39">
-        <v>0.25881904510252057</v>
+        <v>0.19292067663348189</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>-0.11991936644508037</v>
       </c>
       <c r="J39">
-        <v>-0.96592582628906831</v>
+        <v>0.97385879781346629</v>
       </c>
       <c r="K39">
-        <v>2.7593555086030102</v>
+        <v>-150.02090308749118</v>
       </c>
       <c r="L39">
-        <v>-1.4327424421116544</v>
+        <v>-1.7483792191796964E-14</v>
       </c>
       <c r="M39">
-        <v>0.73936708016054586</v>
+        <v>40.197979830080925</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
@@ -2522,40 +2522,40 @@
         <v>57</v>
       </c>
       <c r="B40">
-        <v>-0.88922571329399325</v>
+        <v>0.4806014919503182</v>
       </c>
       <c r="C40">
-        <v>0.45746872113488696</v>
+        <v>0.86874769642157712</v>
       </c>
       <c r="D40">
-        <v>1.2527758678292308E-14</v>
+        <v>-0.11958112684421097</v>
       </c>
       <c r="E40">
-        <v>0.45746872113488696</v>
+        <v>-0.75949154759272319</v>
       </c>
       <c r="F40">
-        <v>0.88922571329399325</v>
+        <v>0.48051720626176708</v>
       </c>
       <c r="G40">
-        <v>-6.4449977722923517E-15</v>
+        <v>0.43849264944990435</v>
       </c>
       <c r="H40">
-        <v>-1.4088390035287269E-14</v>
+        <v>0.43840026810021276</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>-0.11991936644508037</v>
       </c>
       <c r="J40">
-        <v>-1</v>
+        <v>0.89074381866004093</v>
       </c>
       <c r="K40">
-        <v>2.8566950313400463</v>
+        <v>-134.50506202074519</v>
       </c>
       <c r="L40">
-        <v>-1.4327424421116544</v>
+        <v>-1.7483792191796964E-14</v>
       </c>
       <c r="M40">
-        <v>-4.024623381338576E-14</v>
+        <v>77.656533765044571</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
@@ -2563,40 +2563,40 @@
         <v>58</v>
       </c>
       <c r="B41">
-        <v>-0.8589260818709834</v>
+        <v>0.43327552016576809</v>
       </c>
       <c r="C41">
-        <v>0.45746872113488696</v>
+        <v>0.86874769642157712</v>
       </c>
       <c r="D41">
-        <v>0.23014854999537107</v>
+        <v>-0.23989531797700048</v>
       </c>
       <c r="E41">
-        <v>0.44188085246361741</v>
+        <v>-0.62012225185296588</v>
       </c>
       <c r="F41">
-        <v>0.88922571329399325</v>
+        <v>0.48051720626176708</v>
       </c>
       <c r="G41">
-        <v>-0.11840161756840889</v>
+        <v>0.62012225185296577</v>
       </c>
       <c r="H41">
-        <v>-0.25881904510253406</v>
+        <v>0.65400360578661165</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>-0.11991936644508037</v>
       </c>
       <c r="J41">
-        <v>-0.96592582628906476</v>
+        <v>0.74692612028869398</v>
       </c>
       <c r="K41">
-        <v>2.7593555086029999</v>
+        <v>-109.82292325741021</v>
       </c>
       <c r="L41">
-        <v>-1.4327424421116544</v>
+        <v>-1.7483792191796964E-14</v>
       </c>
       <c r="M41">
-        <v>-0.73936708016058439</v>
+        <v>109.82292325741018</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
@@ -2604,40 +2604,40 @@
         <v>59</v>
       </c>
       <c r="B42">
-        <v>-0.77009205741093001</v>
+        <v>0.35642253770357268</v>
       </c>
       <c r="C42">
-        <v>0.45746872113488696</v>
+        <v>0.86874769642157712</v>
       </c>
       <c r="D42">
-        <v>0.444612856647007</v>
+        <v>-0.34386103963541498</v>
       </c>
       <c r="E42">
-        <v>0.39617953393958816</v>
+        <v>-0.43849264944990451</v>
       </c>
       <c r="F42">
-        <v>0.88922571329399325</v>
+        <v>0.48051720626176708</v>
       </c>
       <c r="G42">
-        <v>-0.22873436056744881</v>
+        <v>0.75949154759272308</v>
       </c>
       <c r="H42">
-        <v>-0.50000000000001166</v>
+        <v>0.82503767853071308</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>-0.11991936644508037</v>
       </c>
       <c r="J42">
-        <v>-0.86602540378443194</v>
+        <v>0.55220664117344875</v>
       </c>
       <c r="K42">
-        <v>2.4739704680052439</v>
+        <v>-77.6565337650446</v>
       </c>
       <c r="L42">
-        <v>-1.4327424421116544</v>
+        <v>-1.7483792191796964E-14</v>
       </c>
       <c r="M42">
-        <v>-1.4283475156700565</v>
+        <v>134.50506202074516</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
@@ -2645,40 +2645,40 @@
         <v>60</v>
       </c>
       <c r="B43">
-        <v>-0.62877753187561902</v>
+        <v>-1</v>
       </c>
       <c r="C43">
-        <v>0.45746872113488696</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0.62877753187563556</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0.32347923489521202</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.88922571329399325</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>-0.32347923489522046</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>-0.70710678118655679</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>-0.70710678118653825</v>
+        <v>-1</v>
       </c>
       <c r="K43">
-        <v>2.0199884284424372</v>
+        <v>26.236972944232203</v>
       </c>
       <c r="L43">
-        <v>-1.4327424421116544</v>
+        <v>-25.196695117801692</v>
       </c>
       <c r="M43">
-        <v>-2.01998842844249</v>
+        <v>41.932405799975527</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
@@ -2686,40 +2686,40 @@
         <v>61</v>
       </c>
       <c r="B44">
-        <v>-0.44461285664698535</v>
+        <v>-1</v>
       </c>
       <c r="C44">
-        <v>0.45746872113488696</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0.77009205741094244</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>0.22873436056743768</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.88922571329399325</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>-0.39617953393959454</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>-0.86602540378444592</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>-0.49999999999998734</v>
+        <v>-1</v>
       </c>
       <c r="K44">
-        <v>1.428347515669987</v>
+        <v>18.1564436567343</v>
       </c>
       <c r="L44">
-        <v>-1.4327424421116544</v>
+        <v>-39.796422280243156</v>
       </c>
       <c r="M44">
-        <v>-2.4739704680052839</v>
+        <v>41.932405799975527</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.45">
@@ -2727,40 +2727,40 @@
         <v>62</v>
       </c>
       <c r="B45">
-        <v>0.444612856647007</v>
+        <v>-1</v>
       </c>
       <c r="C45">
-        <v>0.45746872113488696</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>0.77009205741093001</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>-0.22873436056744881</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.88922571329399325</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>-0.39617953393958816</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>-0.86602540378443194</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0.50000000000001166</v>
+        <v>-1</v>
       </c>
       <c r="K45">
-        <v>-1.4283475156700565</v>
+        <v>12.160092077834369</v>
       </c>
       <c r="L45">
-        <v>-1.4327424421116544</v>
+        <v>-55.368536925533597</v>
       </c>
       <c r="M45">
-        <v>-2.4739704680052439</v>
+        <v>41.932405799975527</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.45">
@@ -2768,40 +2768,40 @@
         <v>63</v>
       </c>
       <c r="B46">
-        <v>0.62877753187563679</v>
+        <v>-1</v>
       </c>
       <c r="C46">
-        <v>0.45746872113488696</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>0.62877753187561802</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>-0.32347923489522107</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.88922571329399325</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>-0.32347923489521146</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>-0.70710678118653703</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.70710678118655812</v>
+        <v>-1</v>
       </c>
       <c r="K46">
-        <v>-2.019988428442494</v>
+        <v>8.3618239368598903</v>
       </c>
       <c r="L46">
-        <v>-1.4327424421116544</v>
+        <v>-71.617233670599063</v>
       </c>
       <c r="M46">
-        <v>-2.0199884284424336</v>
+        <v>41.932405799975527</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.45">
@@ -2809,40 +2809,40 @@
         <v>64</v>
       </c>
       <c r="B47">
-        <v>0.77009205741094167</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>0.45746872113488696</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>0.44461285664698674</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>-0.39617953393959415</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.88922571329399325</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>-0.2287343605674384</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>-0.4999999999999889</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0.86602540378444504</v>
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>-2.4739704680052816</v>
+        <v>-47.999904000000001</v>
       </c>
       <c r="L47">
-        <v>-1.4327424421116544</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>-1.4283475156699914</v>
+        <v>-41.932405799975527</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.45">
@@ -2850,40 +2850,40 @@
         <v>65</v>
       </c>
       <c r="B48">
-        <v>0.85892608187098984</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>0.45746872113488696</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>0.23014854999534698</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>-0.44188085246362074</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.88922571329399325</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>-0.1184016175683965</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>-0.25881904510250697</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0.96592582628907198</v>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>-2.7593555086030208</v>
+        <v>-36.248183506749605</v>
       </c>
       <c r="L48">
-        <v>-1.4327424421116544</v>
+        <v>-11.84668950518928</v>
       </c>
       <c r="M48">
-        <v>-0.73936708016050701</v>
+        <v>-41.932405799975527</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.45">
@@ -2891,40 +2891,40 @@
         <v>66</v>
       </c>
       <c r="B49">
-        <v>0.92204972107740435</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>0.29461295616868433</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>-0.25105281898164344</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>-0.28457637699138655</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.95561598802470993</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>7.6252010399816647E-2</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>0.2623749178552271</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>1.1355567385282067E-3</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>0.96496534289649827</v>
+        <v>1</v>
       </c>
       <c r="K49">
-        <v>-2.2034413951481917</v>
+        <v>-26.236972944232203</v>
       </c>
       <c r="L49">
-        <v>-2.7093607345053763</v>
+        <v>-25.196695117801692</v>
       </c>
       <c r="M49">
-        <v>0.5904103423992636</v>
+        <v>-41.932405799975527</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.45">
@@ -2932,40 +2932,40 @@
         <v>67</v>
       </c>
       <c r="B50">
-        <v>0.82565438783217149</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>0.29461295616868427</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>-0.48114242996334367</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>-0.25514419956892631</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.95561598802470982</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>0.14730757230329131</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>0.50318611793233525</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>1.135556738528179E-3</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0.8641773204794716</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>-1.9755515092496243</v>
+        <v>-18.1564436567343</v>
       </c>
       <c r="L50">
-        <v>-2.7093607345053763</v>
+        <v>-39.796422280243156</v>
       </c>
       <c r="M50">
-        <v>1.1405851956632427</v>
+        <v>-41.932405799975527</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.45">
@@ -2973,40 +2973,40 @@
         <v>68</v>
       </c>
       <c r="B51">
-        <v>0.67299207251456639</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>0.29461295616868438</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>-0.67844297946850174</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>-0.20832436659156983</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.95561598802471004</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>0.2083243665915698</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>0.7097060156267313</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>1.1355567385281913E-3</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>0.70449704179231554</v>
+        <v>1</v>
       </c>
       <c r="K51">
-        <v>-1.6130310527489273</v>
+        <v>-12.160092077834369</v>
       </c>
       <c r="L51">
-        <v>-2.7093607345053763</v>
+        <v>-55.368536925533597</v>
       </c>
       <c r="M51">
-        <v>1.6130310527489269</v>
+        <v>-41.932405799975527</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.45">
@@ -3041,13 +3041,13 @@
         <v>1</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>-8.3618239368598903</v>
       </c>
       <c r="L52">
-        <v>-1.2192000000000001</v>
+        <v>-71.617233670599063</v>
       </c>
       <c r="M52">
-        <v>-1.0650852374898536</v>
+        <v>-41.932405799975527</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.45">
@@ -3055,7 +3055,7 @@
         <v>70</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>-47.999904000000001</v>
       </c>
       <c r="L53">
-        <v>-1.8288000000000002</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>-1.0650852374898536</v>
+        <v>41.932405799975527</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.45">
@@ -3096,7 +3096,7 @@
         <v>71</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -3120,16 +3120,16 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>-36.248183506749612</v>
       </c>
       <c r="L54">
-        <v>-2.4384000000000001</v>
+        <v>-11.84668950518928</v>
       </c>
       <c r="M54">
-        <v>-1.0650852374898536</v>
+        <v>41.932405799975527</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.45">
@@ -3137,7 +3137,7 @@
         <v>72</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -3161,16 +3161,16 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>-26.23697294423221</v>
       </c>
       <c r="L55">
-        <v>-3.048</v>
+        <v>-25.196695117801692</v>
       </c>
       <c r="M55">
-        <v>-1.0650852374898536</v>
+        <v>41.932405799975527</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.45">
@@ -3178,7 +3178,7 @@
         <v>73</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>-18.156443656734307</v>
       </c>
       <c r="L56">
-        <v>-0.50800000000000001</v>
+        <v>-39.796422280243156</v>
       </c>
       <c r="M56">
-        <v>-2.1505515112707201</v>
+        <v>41.932405799975527</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.45">
@@ -3219,7 +3219,7 @@
         <v>74</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>-12.160092077834372</v>
       </c>
       <c r="L57">
-        <v>-1.016</v>
+        <v>-55.368536925533597</v>
       </c>
       <c r="M57">
-        <v>-2.1505515112707201</v>
+        <v>41.932405799975527</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.45">
@@ -3287,13 +3287,13 @@
         <v>-1</v>
       </c>
       <c r="K58">
-        <v>-8.3266726846886741E-17</v>
+        <v>-8.3618239368598939</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>-71.617233670599063</v>
       </c>
       <c r="M58">
-        <v>1.0650852374898534</v>
+        <v>41.932405799975527</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.45">
@@ -3301,7 +3301,7 @@
         <v>76</v>
       </c>
       <c r="B59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K59">
-        <v>-8.3266726846886741E-17</v>
+        <v>-57.446682316426653</v>
       </c>
       <c r="L59">
-        <v>-0.60960000000000003</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>1.0650852374898534</v>
+        <v>1.0927370119873103E-15</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.45">
@@ -3342,7 +3342,7 @@
         <v>77</v>
       </c>
       <c r="B60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3366,16 +3366,16 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>-8.3266726846886741E-17</v>
+        <v>-43.516976578152835</v>
       </c>
       <c r="L60">
-        <v>-1.2192000000000001</v>
+        <v>-20.742328846886412</v>
       </c>
       <c r="M60">
-        <v>1.0650852374898536</v>
+        <v>1.0927370119873103E-15</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.45">
@@ -3383,7 +3383,7 @@
         <v>78</v>
       </c>
       <c r="B61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3407,16 +3407,16 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K61">
-        <v>-8.3266726846886741E-17</v>
+        <v>-32.111026901617592</v>
       </c>
       <c r="L61">
-        <v>-1.8288000000000002</v>
+        <v>-42.972605946455452</v>
       </c>
       <c r="M61">
-        <v>1.0650852374898536</v>
+        <v>1.0927370119873103E-15</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.45">
@@ -3424,7 +3424,7 @@
         <v>79</v>
       </c>
       <c r="B62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3448,16 +3448,16 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K62">
-        <v>-8.3266726846886741E-17</v>
+        <v>-23.385655451271777</v>
       </c>
       <c r="L62">
-        <v>-2.4384000000000001</v>
+        <v>-66.385183784036016</v>
       </c>
       <c r="M62">
-        <v>1.0650852374898536</v>
+        <v>1.0927370119873103E-15</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.45">
@@ -3465,7 +3465,7 @@
         <v>80</v>
       </c>
       <c r="B63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3489,16 +3489,16 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>-8.3266726846886741E-17</v>
+        <v>-17.460828707354747</v>
       </c>
       <c r="L63">
-        <v>-3.048</v>
+        <v>-90.658159209431204</v>
       </c>
       <c r="M63">
-        <v>1.0650852374898536</v>
+        <v>1.0927370119873103E-15</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.45">
@@ -3506,7 +3506,7 @@
         <v>81</v>
       </c>
       <c r="B64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3530,16 +3530,16 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>-8.3266726846886741E-17</v>
+        <v>0</v>
       </c>
       <c r="L64">
         <v>0</v>
       </c>
       <c r="M64">
-        <v>2.1505515112707201</v>
+        <v>-41.932405799975527</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.45">
@@ -3547,40 +3547,40 @@
         <v>82</v>
       </c>
       <c r="B65">
-        <v>0.58284728520092965</v>
+        <v>0.7629590939253732</v>
       </c>
       <c r="C65">
-        <v>0.17579131112197519</v>
+        <v>-0.63040152531078475</v>
       </c>
       <c r="D65">
-        <v>0.79333880345532282</v>
+        <v>0.14313398577001063</v>
       </c>
       <c r="E65">
-        <v>-0.10332894821766229</v>
+        <v>0.63696009946733234</v>
       </c>
       <c r="F65">
-        <v>0.9844270276158017</v>
+        <v>0.77089677109621269</v>
       </c>
       <c r="G65">
-        <v>-0.14222009618808829</v>
+        <v>-3.4850635772720212E-18</v>
       </c>
       <c r="H65">
-        <v>-0.80598521735459749</v>
+        <v>-0.11034152746423244</v>
       </c>
       <c r="I65">
-        <v>9.1773282294513358E-4</v>
+        <v>9.1170637813221683E-2</v>
       </c>
       <c r="J65">
-        <v>0.59193495180832811</v>
+        <v>0.98970332025187746</v>
       </c>
       <c r="K65">
-        <v>-1.0832395733349978</v>
+        <v>-81.890833222952054</v>
       </c>
       <c r="L65">
-        <v>-3.6543015073598157</v>
+        <v>-189.9717181747514</v>
       </c>
       <c r="M65">
-        <v>-1.4909513642771548</v>
+        <v>1.0927370119873103E-15</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.45">
@@ -3588,40 +3588,40 @@
         <v>83</v>
       </c>
       <c r="B66">
-        <v>0.79947588116006496</v>
+        <v>0.95560888959042178</v>
       </c>
       <c r="C66">
-        <v>0.17579131112197519</v>
+        <v>0.29461295616868438</v>
       </c>
       <c r="D66">
-        <v>0.57440032240359584</v>
+        <v>-3.8543732707446831E-3</v>
       </c>
       <c r="E66">
-        <v>-0.14222009618809117</v>
+        <v>-0.29461514460658256</v>
       </c>
       <c r="F66">
-        <v>0.9844270276158017</v>
+        <v>0.95561598802471004</v>
       </c>
       <c r="G66">
-        <v>-0.10332894821765831</v>
+        <v>-2.1684043449710089E-19</v>
       </c>
       <c r="H66">
-        <v>-0.58361953332936667</v>
+        <v>3.6833007213387123E-3</v>
       </c>
       <c r="I66">
-        <v>9.1773282294513358E-4</v>
+        <v>1.1355567385281913E-3</v>
       </c>
       <c r="J66">
-        <v>0.81202672251772456</v>
+        <v>0.99999257187575641</v>
       </c>
       <c r="K66">
-        <v>-1.4909513642771852</v>
+        <v>-89.809678306523665</v>
       </c>
       <c r="L66">
-        <v>-3.6543015073598157</v>
+        <v>-106.66753211747665</v>
       </c>
       <c r="M66">
-        <v>-1.083239573334956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.45">
@@ -3629,40 +3629,40 @@
         <v>84</v>
       </c>
       <c r="B67">
-        <v>0.93784620759524939</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>0.17579131112197513</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0.29923553571263084</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>-0.16718975023795285</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.9844270276158017</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>-5.4323242860568534E-2</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>-0.30412510306546409</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>9.1773282294514008E-4</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>0.95263165990422871</v>
+        <v>1</v>
       </c>
       <c r="K67">
-        <v>-1.7527184476149351</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>-3.6543015073598157</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>-0.56949274558082874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.45">
@@ -3700,10 +3700,10 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>-0.7619999999999999</v>
+        <v>0</v>
       </c>
       <c r="M68">
-        <v>-9.331808609502833E-17</v>
+        <v>-84.667212998728246</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.45">
@@ -3738,13 +3738,13 @@
         <v>1</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>57.446682316426653</v>
       </c>
       <c r="L69">
-        <v>-1.5239999999999998</v>
+        <v>0</v>
       </c>
       <c r="M69">
-        <v>-1.8663617219005666E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.45">
@@ -3752,40 +3752,40 @@
         <v>87</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0.99338797594636452</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>-0.11450829705563033</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>8.2570667070502469E-3</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.11451220079446188</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.99342184185229632</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>4.0655046586735724E-20</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>-8.2027504164151315E-3</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>9.4553488073100401E-4</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0.99996590984362821</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>-68.340001321980566</v>
       </c>
       <c r="L70">
-        <v>-2.2859999999999996</v>
+        <v>-168.72156509340877</v>
       </c>
       <c r="M70">
-        <v>-2.7995425828508499E-16</v>
+        <v>6.8296063249206891E-17</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.45">
@@ -3820,13 +3820,13 @@
         <v>1</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>47.999904000000001</v>
       </c>
       <c r="L71">
-        <v>-3.0479999999999996</v>
+        <v>0</v>
       </c>
       <c r="M71">
-        <v>-3.7327234438011332E-16</v>
+        <v>-41.932405799975527</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.45">
@@ -3834,40 +3834,40 @@
         <v>89</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0.47600366454778348</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>0.86874769642157712</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>0.1367404523149032</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>-0.87698529889980847</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.48051720626176708</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>-1.5962708980028503E-17</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>-6.5706140129327684E-2</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>-0.11991936644508037</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0.99060690927366113</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>-155.31306753008909</v>
       </c>
       <c r="L72">
-        <v>-3.8099999999999996</v>
+        <v>-1.7483792191796964E-14</v>
       </c>
       <c r="M72">
-        <v>-4.6659043047514165E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.45">
@@ -3875,19 +3875,19 @@
         <v>90</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0.88922571329399325</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>0.45746872113488696</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>-0.45746872113488696</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0.88922571329399325</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -3902,13 +3902,13 @@
         <v>1</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>-112.46808338385762</v>
       </c>
       <c r="L73">
-        <v>-4.5719999999999992</v>
+        <v>-56.407069945935831</v>
       </c>
       <c r="M73">
-        <v>-5.5990851657016998E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.45">
@@ -3916,40 +3916,40 @@
         <v>91</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0.98441361287225393</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>0.17579131112197519</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>-5.2205101104444681E-3</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>-0.17579370665503763</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0.9844270276158017</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>-1.1639066494557066E-18</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>5.1392112506630861E-3</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>9.1773282294513358E-4</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0.99998637304424631</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>-72.555651636147985</v>
       </c>
       <c r="L74">
-        <v>-5.3339999999999987</v>
+        <v>-143.86985034475595</v>
       </c>
       <c r="M74">
-        <v>-6.5322660266519831E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.45">
@@ -3957,40 +3957,40 @@
         <v>92</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>-0.9220497210774008</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>0.29461295616868433</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>0.25105281898165638</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.28457637699138549</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.95561598802470993</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>-7.6252010399820672E-2</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>-0.26237491785524064</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1.1355567385281928E-3</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>-0.9649653428964946</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>86.749487726983972</v>
       </c>
       <c r="L75">
-        <v>-0.60960000000000003</v>
+        <v>-106.66753211747665</v>
       </c>
       <c r="M75">
-        <v>-1.0650852374898534</v>
+        <v>-23.244455180260225</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.45">
@@ -3998,40 +3998,40 @@
         <v>93</v>
       </c>
       <c r="B76">
-        <v>0.47446645962707851</v>
+        <v>-0.82565438783216505</v>
       </c>
       <c r="C76">
         <v>0.29461295616868433</v>
       </c>
       <c r="D76">
-        <v>-0.82950876110291605</v>
+        <v>0.48114242996335455</v>
       </c>
       <c r="E76">
-        <v>-0.14730757230329136</v>
+        <v>0.25514419956892437</v>
       </c>
       <c r="F76">
-        <v>0.95561598802470993</v>
+        <v>0.95561598802470982</v>
       </c>
       <c r="G76">
-        <v>0.25514419956892631</v>
+        <v>-0.14730757230329466</v>
       </c>
       <c r="H76">
-        <v>0.86786062120081042</v>
+        <v>-0.50318611793234669</v>
       </c>
       <c r="I76">
         <v>1.1355567385282067E-3</v>
       </c>
       <c r="J76">
-        <v>0.49680645394342166</v>
+        <v>-0.86417732047946483</v>
       </c>
       <c r="K76">
-        <v>-1.1405851956632427</v>
+        <v>77.777462919157102</v>
       </c>
       <c r="L76">
-        <v>-2.7093607345053763</v>
+        <v>-106.66753211747665</v>
       </c>
       <c r="M76">
-        <v>1.9755515092496239</v>
+        <v>-44.904839153262884</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.45">
@@ -4039,40 +4039,40 @@
         <v>94</v>
       </c>
       <c r="B77">
-        <v>-0.48114242996334283</v>
+        <v>-0.67299207251455739</v>
       </c>
       <c r="C77">
-        <v>0.29461295616868433</v>
+        <v>0.29461295616868438</v>
       </c>
       <c r="D77">
-        <v>-0.82565438783217193</v>
+        <v>0.67844297946851062</v>
       </c>
       <c r="E77">
-        <v>0.14730757230329108</v>
+        <v>0.20832436659156708</v>
       </c>
       <c r="F77">
-        <v>0.95561598802470993</v>
+        <v>0.95561598802471004</v>
       </c>
       <c r="G77">
-        <v>0.25514419956892648</v>
+        <v>-0.20832436659157255</v>
       </c>
       <c r="H77">
-        <v>0.86417732047947216</v>
+        <v>-0.70970601562674052</v>
       </c>
       <c r="I77">
-        <v>1.135556738528179E-3</v>
+        <v>1.1355567385281913E-3</v>
       </c>
       <c r="J77">
-        <v>-0.50318611793233448</v>
+        <v>-0.70449704179230621</v>
       </c>
       <c r="K77">
-        <v>1.1405851956632407</v>
+        <v>63.505032546724422</v>
       </c>
       <c r="L77">
-        <v>-2.7093607345053763</v>
+        <v>-106.66753211747665</v>
       </c>
       <c r="M77">
-        <v>1.9755515092496252</v>
+        <v>-63.505032546726085</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.45">
@@ -4080,40 +4080,40 @@
         <v>95</v>
       </c>
       <c r="B78">
-        <v>-0.67844297946850174</v>
+        <v>-0.47446645962706613</v>
       </c>
       <c r="C78">
         <v>0.29461295616868438</v>
       </c>
       <c r="D78">
-        <v>-0.67299207251456639</v>
+        <v>0.82950876110292326</v>
       </c>
       <c r="E78">
-        <v>0.2083243665915698</v>
+        <v>0.14730757230328756</v>
       </c>
       <c r="F78">
         <v>0.95561598802471004</v>
       </c>
       <c r="G78">
-        <v>0.20832436659156983</v>
+        <v>-0.25514419956892859</v>
       </c>
       <c r="H78">
-        <v>0.70449704179231554</v>
+        <v>-0.86786062120081786</v>
       </c>
       <c r="I78">
         <v>1.1355567385281913E-3</v>
       </c>
       <c r="J78">
-        <v>-0.7097060156267313</v>
+        <v>-0.49680645394340867</v>
       </c>
       <c r="K78">
-        <v>1.6130310527489269</v>
+        <v>44.904839153260696</v>
       </c>
       <c r="L78">
-        <v>-2.7093607345053763</v>
+        <v>-106.66753211747665</v>
       </c>
       <c r="M78">
-        <v>1.6130310527489273</v>
+        <v>-77.777462919158353</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.45">
@@ -4121,40 +4121,40 @@
         <v>96</v>
       </c>
       <c r="B79">
-        <v>-0.82950876110291605</v>
+        <v>0.48114242996335466</v>
       </c>
       <c r="C79">
-        <v>0.29461295616868433</v>
+        <v>0.29461295616868438</v>
       </c>
       <c r="D79">
-        <v>-0.47446645962707851</v>
+        <v>0.82565438783216527</v>
       </c>
       <c r="E79">
-        <v>0.25514419956892631</v>
+        <v>-0.14730757230329472</v>
       </c>
       <c r="F79">
-        <v>0.95561598802470993</v>
+        <v>0.95561598802471004</v>
       </c>
       <c r="G79">
-        <v>0.14730757230329136</v>
+        <v>-0.25514419956892448</v>
       </c>
       <c r="H79">
-        <v>0.49680645394342166</v>
+        <v>-0.86417732047946516</v>
       </c>
       <c r="I79">
-        <v>1.1355567385282067E-3</v>
+        <v>1.1355567385281913E-3</v>
       </c>
       <c r="J79">
-        <v>-0.86786062120081042</v>
+        <v>0.50318611793234669</v>
       </c>
       <c r="K79">
-        <v>1.9755515092496239</v>
+        <v>-44.904839153262884</v>
       </c>
       <c r="L79">
-        <v>-2.7093607345053763</v>
+        <v>-106.66753211747665</v>
       </c>
       <c r="M79">
-        <v>1.1405851956632427</v>
+        <v>-77.777462919157102</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.45">
@@ -4162,40 +4162,40 @@
         <v>97</v>
       </c>
       <c r="B80">
-        <v>-0.92404489149621016</v>
+        <v>0.67844297946851184</v>
       </c>
       <c r="C80">
         <v>0.29461295616868438</v>
       </c>
       <c r="D80">
-        <v>-0.243606741608902</v>
+        <v>0.67299207251455628</v>
       </c>
       <c r="E80">
-        <v>0.28457637699138666</v>
+        <v>-0.20832436659157294</v>
       </c>
       <c r="F80">
         <v>0.95561598802471004</v>
       </c>
       <c r="G80">
-        <v>7.6252010399816578E-2</v>
+        <v>-0.20832436659156672</v>
       </c>
       <c r="H80">
-        <v>0.2552593272697663</v>
+        <v>-0.70449704179230499</v>
       </c>
       <c r="I80">
         <v>1.1355567385281913E-3</v>
       </c>
       <c r="J80">
-        <v>-0.96687195964754302</v>
+        <v>0.70970601562674185</v>
       </c>
       <c r="K80">
-        <v>2.2034413951481917</v>
+        <v>-63.505032546726206</v>
       </c>
       <c r="L80">
-        <v>-2.7093607345053763</v>
+        <v>-106.66753211747665</v>
       </c>
       <c r="M80">
-        <v>0.59041034239926271</v>
+        <v>-63.505032546724316</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.45">
@@ -4203,40 +4203,40 @@
         <v>98</v>
       </c>
       <c r="B81">
-        <v>-0.95560888959042178</v>
+        <v>0.82950876110292249</v>
       </c>
       <c r="C81">
         <v>0.29461295616868438</v>
       </c>
       <c r="D81">
-        <v>3.8543732707581463E-3</v>
+        <v>0.47446645962706763</v>
       </c>
       <c r="E81">
-        <v>0.29461514460658256</v>
+        <v>-0.25514419956892831</v>
       </c>
       <c r="F81">
         <v>0.95561598802471004</v>
       </c>
       <c r="G81">
-        <v>-4.1504362270855979E-15</v>
+        <v>-0.147307572303288</v>
       </c>
       <c r="H81">
-        <v>-3.6833007213528004E-3</v>
+        <v>-0.49680645394341022</v>
       </c>
       <c r="I81">
         <v>1.1355567385281913E-3</v>
       </c>
       <c r="J81">
-        <v>-0.99999257187575641</v>
+        <v>0.86786062120081697</v>
       </c>
       <c r="K81">
-        <v>2.281170391326484</v>
+        <v>-77.777462919158268</v>
       </c>
       <c r="L81">
-        <v>-2.7093607345053763</v>
+        <v>-106.66753211747665</v>
       </c>
       <c r="M81">
-        <v>-3.2138018209956396E-14</v>
+        <v>-44.904839153260838</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.45">
@@ -4244,40 +4244,40 @@
         <v>99</v>
       </c>
       <c r="B82">
-        <v>-0.9220497210774008</v>
+        <v>0.92404489149621349</v>
       </c>
       <c r="C82">
-        <v>0.29461295616868433</v>
+        <v>0.29461295616868438</v>
       </c>
       <c r="D82">
-        <v>0.25105281898165638</v>
+        <v>0.2436067416088894</v>
       </c>
       <c r="E82">
-        <v>0.28457637699138549</v>
+        <v>-0.28457637699138766</v>
       </c>
       <c r="F82">
-        <v>0.95561598802470993</v>
+        <v>0.95561598802471004</v>
       </c>
       <c r="G82">
-        <v>-7.6252010399820672E-2</v>
+        <v>-7.6252010399812706E-2</v>
       </c>
       <c r="H82">
-        <v>-0.26237491785524064</v>
+        <v>-0.25525932726975314</v>
       </c>
       <c r="I82">
-        <v>1.1355567385281928E-3</v>
+        <v>1.1355567385281913E-3</v>
       </c>
       <c r="J82">
-        <v>-0.9649653428964946</v>
+        <v>0.96687195964754646</v>
       </c>
       <c r="K82">
-        <v>2.2034413951481833</v>
+        <v>-86.749487726984611</v>
       </c>
       <c r="L82">
-        <v>-2.7093607345053763</v>
+        <v>-106.66753211747665</v>
       </c>
       <c r="M82">
-        <v>-0.59041034239929457</v>
+        <v>-23.244455180257791</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.45">
@@ -4285,40 +4285,40 @@
         <v>100</v>
       </c>
       <c r="B83">
-        <v>-0.82565438783216505</v>
+        <v>0.93461975490837834</v>
       </c>
       <c r="C83">
-        <v>0.29461295616868433</v>
+        <v>0.17579131112197519</v>
       </c>
       <c r="D83">
-        <v>0.48114242996335455</v>
+        <v>-0.3091655360304898</v>
       </c>
       <c r="E83">
-        <v>0.25514419956892437</v>
+        <v>-0.16718975023795227</v>
       </c>
       <c r="F83">
-        <v>0.95561598802470982</v>
+        <v>0.9844270276158017</v>
       </c>
       <c r="G83">
-        <v>-0.14730757230329466</v>
+        <v>5.4323242860570907E-2</v>
       </c>
       <c r="H83">
-        <v>-0.50318611793234669</v>
+        <v>0.31390046376259839</v>
       </c>
       <c r="I83">
-        <v>1.1355567385282067E-3</v>
+        <v>9.1773282294513358E-4</v>
       </c>
       <c r="J83">
-        <v>-0.86417732047946483</v>
+        <v>0.949455452675949</v>
       </c>
       <c r="K83">
-        <v>1.975551509249609</v>
+        <v>-69.004525282599673</v>
       </c>
       <c r="L83">
-        <v>-2.7093607345053763</v>
+        <v>-143.86985034475595</v>
       </c>
       <c r="M83">
-        <v>-1.1405851956632687</v>
+        <v>22.420929393518179</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.45">
@@ -4326,40 +4326,40 @@
         <v>101</v>
       </c>
       <c r="B84">
-        <v>-0.67299207251455739</v>
+        <v>0.79333880345533092</v>
       </c>
       <c r="C84">
-        <v>0.29461295616868438</v>
+        <v>0.17579131112197519</v>
       </c>
       <c r="D84">
-        <v>0.67844297946851062</v>
+        <v>-0.58284728520091855</v>
       </c>
       <c r="E84">
-        <v>0.20832436659156708</v>
+        <v>-0.14222009618808973</v>
       </c>
       <c r="F84">
-        <v>0.95561598802471004</v>
+        <v>0.9844270276158017</v>
       </c>
       <c r="G84">
-        <v>-0.20832436659157255</v>
+        <v>0.10332894821766031</v>
       </c>
       <c r="H84">
-        <v>-0.70970601562674052</v>
+        <v>0.59193495180831679</v>
       </c>
       <c r="I84">
-        <v>1.1355567385281913E-3</v>
+        <v>9.1773282294513358E-4</v>
       </c>
       <c r="J84">
-        <v>-0.70449704179230621</v>
+        <v>0.80598521735460582</v>
       </c>
       <c r="K84">
-        <v>1.613031052748906</v>
+        <v>-58.698755211592186</v>
       </c>
       <c r="L84">
-        <v>-2.7093607345053763</v>
+        <v>-143.86985034475595</v>
       </c>
       <c r="M84">
-        <v>-1.6130310527489482</v>
+        <v>42.647142002198038</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.45">
@@ -4367,40 +4367,40 @@
         <v>102</v>
       </c>
       <c r="B85">
-        <v>-0.47446645962706613</v>
+        <v>0.57440032240360672</v>
       </c>
       <c r="C85">
-        <v>0.29461295616868438</v>
+        <v>0.17579131112197513</v>
       </c>
       <c r="D85">
-        <v>0.82950876110292326</v>
+        <v>-0.79947588116005697</v>
       </c>
       <c r="E85">
-        <v>0.14730757230328756</v>
+        <v>-0.1033289482176602</v>
       </c>
       <c r="F85">
-        <v>0.95561598802471004</v>
+        <v>0.9844270276158017</v>
       </c>
       <c r="G85">
-        <v>-0.25514419956892859</v>
+        <v>0.14222009618808962</v>
       </c>
       <c r="H85">
-        <v>-0.86786062120081786</v>
+        <v>0.81202672251771646</v>
       </c>
       <c r="I85">
-        <v>1.1355567385281913E-3</v>
+        <v>9.1773282294514702E-4</v>
       </c>
       <c r="J85">
-        <v>-0.49680645394340867</v>
+        <v>0.58361953332937788</v>
       </c>
       <c r="K85">
-        <v>1.1405851956632131</v>
+        <v>-42.647142002198038</v>
       </c>
       <c r="L85">
-        <v>-2.7093607345053763</v>
+        <v>-143.86985034475595</v>
       </c>
       <c r="M85">
-        <v>-1.975551509249641</v>
+        <v>58.698755211592193</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.45">
@@ -4408,40 +4408,40 @@
         <v>103</v>
       </c>
       <c r="B86">
-        <v>0.48114242996335466</v>
+        <v>0.85892608187098674</v>
       </c>
       <c r="C86">
-        <v>0.29461295616868438</v>
+        <v>0.45746872113488696</v>
       </c>
       <c r="D86">
-        <v>0.82565438783216527</v>
+        <v>-0.23014854999535891</v>
       </c>
       <c r="E86">
-        <v>-0.14730757230329472</v>
+        <v>-0.44188085246361908</v>
       </c>
       <c r="F86">
-        <v>0.95561598802471004</v>
+        <v>0.88922571329399325</v>
       </c>
       <c r="G86">
-        <v>-0.25514419956892448</v>
+        <v>0.11840161756840263</v>
       </c>
       <c r="H86">
-        <v>-0.86417732047946516</v>
+        <v>0.25881904510252041</v>
       </c>
       <c r="I86">
-        <v>1.1355567385281913E-3</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>0.50318611793234669</v>
+        <v>0.96592582628906842</v>
       </c>
       <c r="K86">
-        <v>-1.1405851956632687</v>
+        <v>-108.63582637370052</v>
       </c>
       <c r="L86">
-        <v>-2.7093607345053763</v>
+        <v>-56.407069945935831</v>
       </c>
       <c r="M86">
-        <v>-1.975551509249609</v>
+        <v>29.108881945920672</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.45">
@@ -4449,40 +4449,40 @@
         <v>104</v>
       </c>
       <c r="B87">
-        <v>0.67844297946851184</v>
+        <v>0.77009205741093589</v>
       </c>
       <c r="C87">
-        <v>0.29461295616868438</v>
+        <v>0.4574687211348869</v>
       </c>
       <c r="D87">
-        <v>0.67299207251455628</v>
+        <v>-0.44461285664699685</v>
       </c>
       <c r="E87">
-        <v>-0.20832436659157294</v>
+        <v>-0.3961795339395911</v>
       </c>
       <c r="F87">
-        <v>0.95561598802471004</v>
+        <v>0.88922571329399325</v>
       </c>
       <c r="G87">
-        <v>-0.20832436659156672</v>
+        <v>0.22873436056744353</v>
       </c>
       <c r="H87">
-        <v>-0.70449704179230499</v>
+        <v>0.50000000000000022</v>
       </c>
       <c r="I87">
-        <v>1.1355567385281913E-3</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>0.70970601562674185</v>
+        <v>0.86602540378443849</v>
       </c>
       <c r="K87">
-        <v>-1.6130310527489513</v>
+        <v>-97.400217325367208</v>
       </c>
       <c r="L87">
-        <v>-2.7093607345053763</v>
+        <v>-56.407069945935831</v>
       </c>
       <c r="M87">
-        <v>-1.6130310527489031</v>
+        <v>56.234041691928844</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.45">
@@ -4490,40 +4490,40 @@
         <v>105</v>
       </c>
       <c r="B88">
-        <v>0.82950876110292249</v>
+        <v>0.62877753187562746</v>
       </c>
       <c r="C88">
-        <v>0.29461295616868438</v>
+        <v>0.45746872113488696</v>
       </c>
       <c r="D88">
-        <v>0.47446645962706763</v>
+        <v>-0.62877753187562724</v>
       </c>
       <c r="E88">
-        <v>-0.25514419956892831</v>
+        <v>-0.32347923489521629</v>
       </c>
       <c r="F88">
-        <v>0.95561598802471004</v>
+        <v>0.88922571329399325</v>
       </c>
       <c r="G88">
-        <v>-0.147307572303288</v>
+        <v>0.32347923489521624</v>
       </c>
       <c r="H88">
-        <v>-0.49680645394341022</v>
+        <v>0.70710678118654746</v>
       </c>
       <c r="I88">
-        <v>1.1355567385281913E-3</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>0.86786062120081697</v>
+        <v>0.70710678118654768</v>
       </c>
       <c r="K88">
-        <v>-1.9755515092496387</v>
+        <v>-79.52694442777981</v>
       </c>
       <c r="L88">
-        <v>-2.7093607345053763</v>
+        <v>-56.407069945935831</v>
       </c>
       <c r="M88">
-        <v>-1.1405851956632167</v>
+        <v>79.526944427779782</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.45">
@@ -4531,40 +4531,40 @@
         <v>106</v>
       </c>
       <c r="B89">
-        <v>0.92404489149621349</v>
+        <v>0.4446128566469969</v>
       </c>
       <c r="C89">
-        <v>0.29461295616868438</v>
+        <v>0.45746872113488696</v>
       </c>
       <c r="D89">
-        <v>0.2436067416088894</v>
+        <v>-0.77009205741093578</v>
       </c>
       <c r="E89">
-        <v>-0.28457637699138766</v>
+        <v>-0.22873436056744362</v>
       </c>
       <c r="F89">
-        <v>0.95561598802471004</v>
+        <v>0.88922571329399325</v>
       </c>
       <c r="G89">
-        <v>-7.6252010399812706E-2</v>
+        <v>0.39617953393959116</v>
       </c>
       <c r="H89">
-        <v>-0.25525932726975314</v>
+        <v>0.86602540378443849</v>
       </c>
       <c r="I89">
-        <v>1.1355567385281913E-3</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>0.96687195964754646</v>
+        <v>0.50000000000000033</v>
       </c>
       <c r="K89">
-        <v>-2.2034413951481997</v>
+        <v>-56.234041691928844</v>
       </c>
       <c r="L89">
-        <v>-2.7093607345053763</v>
+        <v>-56.407069945935831</v>
       </c>
       <c r="M89">
-        <v>-0.59041034239923273</v>
+        <v>97.400217325367194</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.45">
@@ -4572,40 +4572,40 @@
         <v>107</v>
       </c>
       <c r="B90">
-        <v>0.93461975490837834</v>
+        <v>-0.4446128566469964</v>
       </c>
       <c r="C90">
-        <v>0.17579131112197519</v>
+        <v>0.45746872113488685</v>
       </c>
       <c r="D90">
-        <v>-0.3091655360304898</v>
+        <v>-0.770092057410936</v>
       </c>
       <c r="E90">
-        <v>-0.16718975023795227</v>
+        <v>0.22873436056744331</v>
       </c>
       <c r="F90">
-        <v>0.9844270276158017</v>
+        <v>0.88922571329399336</v>
       </c>
       <c r="G90">
-        <v>5.4323242860570907E-2</v>
+        <v>0.39617953393959121</v>
       </c>
       <c r="H90">
-        <v>0.31390046376259839</v>
+        <v>0.86602540378443882</v>
       </c>
       <c r="I90">
-        <v>9.1773282294513358E-4</v>
+        <v>2.7755575615628914E-17</v>
       </c>
       <c r="J90">
-        <v>0.949455452675949</v>
+        <v>-0.49999999999999978</v>
       </c>
       <c r="K90">
-        <v>-1.7527184476149269</v>
+        <v>56.234041691928802</v>
       </c>
       <c r="L90">
-        <v>-3.6543015073598157</v>
+        <v>-56.407069945935831</v>
       </c>
       <c r="M90">
-        <v>0.56949274558085294</v>
+        <v>97.400217325367237</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.45">
@@ -4613,40 +4613,40 @@
         <v>108</v>
       </c>
       <c r="B91">
-        <v>0.79333880345533092</v>
+        <v>-0.62877753187562724</v>
       </c>
       <c r="C91">
-        <v>0.17579131112197519</v>
+        <v>0.45746872113488696</v>
       </c>
       <c r="D91">
-        <v>-0.58284728520091855</v>
+        <v>-0.62877753187562735</v>
       </c>
       <c r="E91">
-        <v>-0.14222009618808973</v>
+        <v>0.32347923489521624</v>
       </c>
       <c r="F91">
-        <v>0.9844270276158017</v>
+        <v>0.88922571329399325</v>
       </c>
       <c r="G91">
-        <v>0.10332894821766031</v>
+        <v>0.32347923489521624</v>
       </c>
       <c r="H91">
-        <v>0.59193495180831679</v>
+        <v>0.70710678118654757</v>
       </c>
       <c r="I91">
-        <v>9.1773282294513358E-4</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>0.80598521735460582</v>
+        <v>-0.70710678118654746</v>
       </c>
       <c r="K91">
-        <v>-1.4909513642771701</v>
+        <v>79.526944427779782</v>
       </c>
       <c r="L91">
-        <v>-3.6543015073598157</v>
+        <v>-56.407069945935831</v>
       </c>
       <c r="M91">
-        <v>1.0832395733349769</v>
+        <v>79.526944427779796</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.45">
@@ -4654,40 +4654,40 @@
         <v>109</v>
       </c>
       <c r="B92">
-        <v>0.57440032240360672</v>
+        <v>-0.770092057410936</v>
       </c>
       <c r="C92">
-        <v>0.17579131112197513</v>
+        <v>0.45746872113488696</v>
       </c>
       <c r="D92">
-        <v>-0.79947588116005697</v>
+        <v>-0.44461285664699657</v>
       </c>
       <c r="E92">
-        <v>-0.1033289482176602</v>
+        <v>0.39617953393959127</v>
       </c>
       <c r="F92">
-        <v>0.9844270276158017</v>
+        <v>0.88922571329399325</v>
       </c>
       <c r="G92">
-        <v>0.14222009618808962</v>
+        <v>0.22873436056744345</v>
       </c>
       <c r="H92">
-        <v>0.81202672251771646</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="I92">
-        <v>9.1773282294514702E-4</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>0.58361953332937788</v>
+        <v>-0.86602540378443871</v>
       </c>
       <c r="K92">
-        <v>-1.0832395733349769</v>
+        <v>97.400217325367208</v>
       </c>
       <c r="L92">
-        <v>-3.6543015073598157</v>
+        <v>-56.407069945935831</v>
       </c>
       <c r="M92">
-        <v>1.4909513642771703</v>
+        <v>56.234041691928802</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.45">
@@ -4695,40 +4695,40 @@
         <v>110</v>
       </c>
       <c r="B93">
-        <v>-0.58284728520091844</v>
+        <v>-0.85892608187098662</v>
       </c>
       <c r="C93">
-        <v>0.17579131112197516</v>
+        <v>0.45746872113488696</v>
       </c>
       <c r="D93">
-        <v>-0.79333880345533092</v>
+        <v>-0.23014854999535905</v>
       </c>
       <c r="E93">
-        <v>0.1033289482176602</v>
+        <v>0.44188085246361908</v>
       </c>
       <c r="F93">
-        <v>0.9844270276158017</v>
+        <v>0.88922571329399325</v>
       </c>
       <c r="G93">
-        <v>0.14222009618808965</v>
+        <v>0.11840161756840271</v>
       </c>
       <c r="H93">
-        <v>0.80598521735460582</v>
+        <v>0.25881904510252057</v>
       </c>
       <c r="I93">
-        <v>9.1773282294514702E-4</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>-0.59193495180831679</v>
+        <v>-0.96592582628906831</v>
       </c>
       <c r="K93">
-        <v>1.0832395733349769</v>
+        <v>108.6358263737005</v>
       </c>
       <c r="L93">
-        <v>-3.6543015073598157</v>
+        <v>-56.407069945935831</v>
       </c>
       <c r="M93">
-        <v>1.4909513642771703</v>
+        <v>29.10888194592069</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.45">
@@ -4736,40 +4736,40 @@
         <v>111</v>
       </c>
       <c r="B94">
-        <v>-0.79947588116005719</v>
+        <v>-0.88922571329399325</v>
       </c>
       <c r="C94">
-        <v>0.17579131112197519</v>
+        <v>0.45746872113488696</v>
       </c>
       <c r="D94">
-        <v>-0.57440032240360661</v>
+        <v>1.2527758678292308E-14</v>
       </c>
       <c r="E94">
-        <v>0.14222009618808978</v>
+        <v>0.45746872113488696</v>
       </c>
       <c r="F94">
-        <v>0.9844270276158017</v>
+        <v>0.88922571329399325</v>
       </c>
       <c r="G94">
-        <v>0.10332894821766025</v>
+        <v>-6.4449977722923517E-15</v>
       </c>
       <c r="H94">
-        <v>0.58361953332937777</v>
+        <v>-1.4088390035287269E-14</v>
       </c>
       <c r="I94">
-        <v>9.1773282294513358E-4</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>-0.81202672251771668</v>
+        <v>-1</v>
       </c>
       <c r="K94">
-        <v>1.4909513642771703</v>
+        <v>112.46808338385762</v>
       </c>
       <c r="L94">
-        <v>-3.6543015073598157</v>
+        <v>-56.407069945935831</v>
       </c>
       <c r="M94">
-        <v>1.0832395733349762</v>
+        <v>-1.5844942252329972E-12</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.45">
@@ -4777,40 +4777,40 @@
         <v>112</v>
       </c>
       <c r="B95">
-        <v>-0.9378462075952454</v>
+        <v>-0.8589260818709834</v>
       </c>
       <c r="C95">
-        <v>0.17579131112197516</v>
+        <v>0.45746872113488696</v>
       </c>
       <c r="D95">
-        <v>-0.29923553571264372</v>
+        <v>0.23014854999537107</v>
       </c>
       <c r="E95">
-        <v>0.1671897502379521</v>
+        <v>0.44188085246361741</v>
       </c>
       <c r="F95">
-        <v>0.9844270276158017</v>
+        <v>0.88922571329399325</v>
       </c>
       <c r="G95">
-        <v>5.4323242860570824E-2</v>
+        <v>-0.11840161756840889</v>
       </c>
       <c r="H95">
-        <v>0.30412510306547713</v>
+        <v>-0.25881904510253406</v>
       </c>
       <c r="I95">
-        <v>9.1773282294514008E-4</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>-0.95263165990422471</v>
+        <v>-0.96592582628906476</v>
       </c>
       <c r="K95">
-        <v>1.7527184476149273</v>
+        <v>108.6358263737001</v>
       </c>
       <c r="L95">
-        <v>-3.6543015073598157</v>
+        <v>-56.407069945935831</v>
       </c>
       <c r="M95">
-        <v>0.56949274558085272</v>
+        <v>-29.108881945922207</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.45">
@@ -4818,40 +4818,40 @@
         <v>113</v>
       </c>
       <c r="B96">
-        <v>-0.98441361287225382</v>
+        <v>-0.77009205741093001</v>
       </c>
       <c r="C96">
-        <v>0.17579131112197519</v>
+        <v>0.45746872113488696</v>
       </c>
       <c r="D96">
-        <v>5.2205101104583372E-3</v>
+        <v>0.444612856647007</v>
       </c>
       <c r="E96">
-        <v>0.17579370665503763</v>
+        <v>0.39617953393958816</v>
       </c>
       <c r="F96">
-        <v>0.9844270276158017</v>
+        <v>0.88922571329399325</v>
       </c>
       <c r="G96">
-        <v>-2.4754863984555896E-15</v>
+        <v>-0.22873436056744881</v>
       </c>
       <c r="H96">
-        <v>-5.1392112506771746E-3</v>
+        <v>-0.50000000000001166</v>
       </c>
       <c r="I96">
-        <v>9.1773282294513358E-4</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>-0.9999863730442462</v>
+        <v>-0.86602540378443194</v>
       </c>
       <c r="K96">
-        <v>1.8429172373926337</v>
+        <v>97.400217325366441</v>
       </c>
       <c r="L96">
-        <v>-3.6543015073598157</v>
+        <v>-56.407069945935831</v>
       </c>
       <c r="M96">
-        <v>-2.5963736843141522E-14</v>
+        <v>-56.234041691930116</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.45">
@@ -4859,40 +4859,40 @@
         <v>114</v>
       </c>
       <c r="B97">
-        <v>-0.93461975490837379</v>
+        <v>-0.62877753187561902</v>
       </c>
       <c r="C97">
-        <v>0.17579131112197519</v>
+        <v>0.45746872113488696</v>
       </c>
       <c r="D97">
-        <v>0.30916553603050306</v>
+        <v>0.62877753187563556</v>
       </c>
       <c r="E97">
-        <v>0.16718975023795146</v>
+        <v>0.32347923489521202</v>
       </c>
       <c r="F97">
-        <v>0.9844270276158017</v>
+        <v>0.88922571329399325</v>
       </c>
       <c r="G97">
-        <v>-5.432324286057328E-2</v>
+        <v>-0.32347923489522046</v>
       </c>
       <c r="H97">
-        <v>-0.31390046376261183</v>
+        <v>-0.70710678118655679</v>
       </c>
       <c r="I97">
-        <v>9.1773282294513358E-4</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>-0.94945545267594456</v>
+        <v>-0.70710678118653825</v>
       </c>
       <c r="K97">
-        <v>1.7527184476149187</v>
+        <v>79.526944427778744</v>
       </c>
       <c r="L97">
-        <v>-3.6543015073598157</v>
+        <v>-56.407069945935831</v>
       </c>
       <c r="M97">
-        <v>-0.56949274558087781</v>
+        <v>-79.526944427780833</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.45">
@@ -4900,40 +4900,40 @@
         <v>115</v>
       </c>
       <c r="B98">
-        <v>-0.79333880345532293</v>
+        <v>-0.44461285664698535</v>
       </c>
       <c r="C98">
-        <v>0.17579131112197519</v>
+        <v>0.45746872113488696</v>
       </c>
       <c r="D98">
-        <v>0.58284728520092977</v>
+        <v>0.77009205741094244</v>
       </c>
       <c r="E98">
-        <v>0.14222009618808831</v>
+        <v>0.22873436056743768</v>
       </c>
       <c r="F98">
-        <v>0.9844270276158017</v>
+        <v>0.88922571329399325</v>
       </c>
       <c r="G98">
-        <v>-0.10332894821766232</v>
+        <v>-0.39617953393959454</v>
       </c>
       <c r="H98">
-        <v>-0.59193495180832822</v>
+        <v>-0.86602540378444592</v>
       </c>
       <c r="I98">
-        <v>9.1773282294513358E-4</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>-0.80598521735459761</v>
+        <v>-0.49999999999998734</v>
       </c>
       <c r="K98">
-        <v>1.490951364277155</v>
+        <v>56.234041691927381</v>
       </c>
       <c r="L98">
-        <v>-3.6543015073598157</v>
+        <v>-56.407069945935831</v>
       </c>
       <c r="M98">
-        <v>-1.083239573334998</v>
+        <v>-97.400217325368018</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.45">
@@ -4941,40 +4941,40 @@
         <v>116</v>
       </c>
       <c r="B99">
-        <v>-0.57440032240359562</v>
+        <v>0.444612856647007</v>
       </c>
       <c r="C99">
-        <v>0.17579131112197513</v>
+        <v>0.45746872113488696</v>
       </c>
       <c r="D99">
-        <v>0.79947588116006496</v>
+        <v>0.77009205741093001</v>
       </c>
       <c r="E99">
-        <v>0.10332894821765821</v>
+        <v>-0.22873436056744881</v>
       </c>
       <c r="F99">
-        <v>0.9844270276158017</v>
+        <v>0.88922571329399325</v>
       </c>
       <c r="G99">
-        <v>-0.14222009618809109</v>
+        <v>-0.39617953393958816</v>
       </c>
       <c r="H99">
-        <v>-0.81202672251772456</v>
+        <v>-0.86602540378443194</v>
       </c>
       <c r="I99">
-        <v>9.1773282294511926E-4</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>-0.58361953332936667</v>
+        <v>0.50000000000001166</v>
       </c>
       <c r="K99">
-        <v>1.083239573334956</v>
+        <v>-56.234041691930116</v>
       </c>
       <c r="L99">
-        <v>-3.6543015073598157</v>
+        <v>-56.407069945935831</v>
       </c>
       <c r="M99">
-        <v>-1.4909513642771857</v>
+        <v>-97.400217325366441</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.45">
@@ -4982,40 +4982,40 @@
         <v>117</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0.62877753187563679</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.45746872113488696</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.62877753187561802</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.32347923489522107</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0.88922571329399325</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>-0.32347923489521146</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>-0.70710678118653703</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>0.70710678118655812</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>-79.52694442778099</v>
       </c>
       <c r="L100">
-        <v>-2.032</v>
+        <v>-56.407069945935831</v>
       </c>
       <c r="M100">
-        <v>-2.1505515112707205</v>
+        <v>-79.526944427778602</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.45">
@@ -5023,40 +5023,40 @@
         <v>118</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0.77009205741094167</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>0.45746872113488696</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>0.44461285664698674</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>-0.39617953393959415</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0.88922571329399325</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>-0.2287343605674384</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>-0.4999999999999889</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>1</v>
+        <v>0.86602540378444504</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>-97.400217325367933</v>
       </c>
       <c r="L101">
-        <v>-1.524</v>
+        <v>-56.407069945935831</v>
       </c>
       <c r="M101">
-        <v>-2.1505515112707205</v>
+        <v>-56.234041691927558</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.45">
@@ -5064,40 +5064,40 @@
         <v>119</v>
       </c>
       <c r="B102">
-        <v>-1</v>
+        <v>0.85892608187098984</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>0.45746872113488696</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>0.23014854999534698</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>-0.44188085246362074</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0.88922571329399325</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>-0.1184016175683965</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>-0.25881904510250697</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>-1</v>
+        <v>0.96592582628907198</v>
       </c>
       <c r="K102">
-        <v>-8.3266726846886741E-17</v>
+        <v>-108.63582637370092</v>
       </c>
       <c r="L102">
-        <v>-3.6576000000000004</v>
+        <v>-56.407069945935831</v>
       </c>
       <c r="M102">
-        <v>1.0650852374898538</v>
+        <v>-29.108881945919158</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.45">
@@ -5105,40 +5105,40 @@
         <v>120</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0.92204972107740435</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>0.29461295616868433</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>-0.25105281898164344</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>-0.28457637699138655</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.95561598802470993</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>7.6252010399816647E-2</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>0.2623749178552271</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1.1355567385282067E-3</v>
       </c>
       <c r="J103">
-        <v>1</v>
+        <v>0.96496534289649827</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>-86.749487726984299</v>
       </c>
       <c r="L103">
-        <v>-3.6576000000000004</v>
+        <v>-106.66753211747665</v>
       </c>
       <c r="M103">
-        <v>-1.0650852374898538</v>
+        <v>23.244455180259006</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.45">
@@ -5146,40 +5146,40 @@
         <v>121</v>
       </c>
       <c r="B104">
-        <v>-1</v>
+        <v>0.82565438783217149</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.29461295616868427</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.48114242996334367</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.25514419956892631</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0.95561598802470982</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.14730757230329131</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>0.50318611793233525</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1.135556738528179E-3</v>
       </c>
       <c r="J104">
-        <v>-1</v>
+        <v>0.8641773204794716</v>
       </c>
       <c r="K104">
-        <v>-8.3266726846886741E-17</v>
+        <v>-77.777462919157699</v>
       </c>
       <c r="L104">
-        <v>-1.524</v>
+        <v>-106.66753211747665</v>
       </c>
       <c r="M104">
-        <v>2.1505515112707205</v>
+        <v>44.904839153261861</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.45">
@@ -5187,40 +5187,40 @@
         <v>122</v>
       </c>
       <c r="B105">
-        <v>-1</v>
+        <v>0.67299207251456639</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>0.29461295616868438</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>-0.67844297946850174</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>-0.20832436659156983</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0.95561598802471004</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>0.2083243665915698</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>0.7097060156267313</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1.1355567385281913E-3</v>
       </c>
       <c r="J105">
-        <v>-1</v>
+        <v>0.70449704179231554</v>
       </c>
       <c r="K105">
-        <v>-8.3266726846886741E-17</v>
+        <v>-63.505032546725268</v>
       </c>
       <c r="L105">
-        <v>-2.032</v>
+        <v>-106.66753211747665</v>
       </c>
       <c r="M105">
-        <v>2.1505515112707205</v>
+        <v>63.505032546725246</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.45">
@@ -5228,40 +5228,40 @@
         <v>123</v>
       </c>
       <c r="B106">
-        <v>0.79881437251074938</v>
+        <v>0.47446645962707851</v>
       </c>
       <c r="C106">
-        <v>-0.11450829705563033</v>
+        <v>0.29461295616868433</v>
       </c>
       <c r="D106">
-        <v>0.59057890935562307</v>
+        <v>-0.82950876110291605</v>
       </c>
       <c r="E106">
-        <v>9.2642316505996955E-2</v>
+        <v>-0.14730757230329136</v>
       </c>
       <c r="F106">
-        <v>0.99342184185229632</v>
+        <v>0.95561598802470993</v>
       </c>
       <c r="G106">
-        <v>6.730858283453782E-2</v>
+        <v>0.25514419956892631</v>
       </c>
       <c r="H106">
-        <v>-0.5944013790887942</v>
+        <v>0.86786062120081042</v>
       </c>
       <c r="I106">
-        <v>9.4553488073100401E-4</v>
+        <v>1.1355567385282067E-3</v>
       </c>
       <c r="J106">
-        <v>0.80416795913610539</v>
+        <v>0.49680645394342166</v>
       </c>
       <c r="K106">
-        <v>-1.4043236592605846</v>
+        <v>-44.904839153261861</v>
       </c>
       <c r="L106">
-        <v>-4.285536324445232</v>
+        <v>-106.66753211747665</v>
       </c>
       <c r="M106">
-        <v>-1.0203008615368943</v>
+        <v>77.777462919157685</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.45">
@@ -5269,40 +5269,40 @@
         <v>124</v>
       </c>
       <c r="B107">
-        <v>0.94221653379688175</v>
+        <v>-0.48114242996334283</v>
       </c>
       <c r="C107">
-        <v>-0.11450829705563033</v>
+        <v>0.29461295616868433</v>
       </c>
       <c r="D107">
-        <v>0.31482670367236892</v>
+        <v>-0.82565438783217193</v>
       </c>
       <c r="E107">
-        <v>0.10890757476087255</v>
+        <v>0.14730757230329108</v>
       </c>
       <c r="F107">
-        <v>0.99342184185229632</v>
+        <v>0.95561598802470993</v>
       </c>
       <c r="G107">
-        <v>3.5386216108763559E-2</v>
+        <v>0.25514419956892648</v>
       </c>
       <c r="H107">
-        <v>-0.31680773917234883</v>
+        <v>0.86417732047947216</v>
       </c>
       <c r="I107">
-        <v>9.4553488073100401E-4</v>
+        <v>1.135556738528179E-3</v>
       </c>
       <c r="J107">
-        <v>0.9484893053505109</v>
+        <v>-0.50318611793233448</v>
       </c>
       <c r="K107">
-        <v>-1.6508814727175347</v>
+        <v>44.904839153261783</v>
       </c>
       <c r="L107">
-        <v>-4.285536324445232</v>
+        <v>-106.66753211747665</v>
       </c>
       <c r="M107">
-        <v>-0.53640390663188886</v>
+        <v>77.777462919157742</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.45">
@@ -5310,40 +5310,40 @@
         <v>125</v>
       </c>
       <c r="B108">
-        <v>0.70137891893599169</v>
+        <v>-0.67844297946850174</v>
       </c>
       <c r="C108">
-        <v>-0.63040152531078464</v>
+        <v>0.29461295616868438</v>
       </c>
       <c r="D108">
-        <v>-0.33265827655120161</v>
+        <v>-0.67299207251456639</v>
       </c>
       <c r="E108">
-        <v>0.51531154520782851</v>
+        <v>0.2083243665915698</v>
       </c>
       <c r="F108">
-        <v>0.77089677109621257</v>
+        <v>0.95561598802471004</v>
       </c>
       <c r="G108">
-        <v>-0.37439575276564446</v>
+        <v>0.20832436659156983</v>
       </c>
       <c r="H108">
-        <v>0.4924648448850939</v>
+        <v>0.70449704179231554</v>
       </c>
       <c r="I108">
-        <v>9.1170637813221683E-2</v>
+        <v>1.1355567385281913E-3</v>
       </c>
       <c r="J108">
-        <v>0.86554392803198066</v>
+        <v>-0.7097060156267313</v>
       </c>
       <c r="K108">
-        <v>-1.6827806898880566</v>
+        <v>63.505032546725246</v>
       </c>
       <c r="L108">
-        <v>-4.8252912922212703</v>
+        <v>-106.66753211747665</v>
       </c>
       <c r="M108">
-        <v>1.2226117365098734</v>
+        <v>63.505032546725268</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.45">
@@ -5351,40 +5351,40 @@
         <v>126</v>
       </c>
       <c r="B109">
-        <v>0.76984805201992756</v>
+        <v>-0.82950876110291605</v>
       </c>
       <c r="C109">
-        <v>-0.63040152531078475</v>
+        <v>0.29461295616868433</v>
       </c>
       <c r="D109">
-        <v>-9.963881616598555E-2</v>
+        <v>-0.47446645962707851</v>
       </c>
       <c r="E109">
-        <v>0.60578505321841569</v>
+        <v>0.25514419956892631</v>
       </c>
       <c r="F109">
-        <v>0.77089677109621269</v>
+        <v>0.95561598802470993</v>
       </c>
       <c r="G109">
-        <v>-0.19683149547416254</v>
+        <v>0.14730757230329136</v>
       </c>
       <c r="H109">
-        <v>0.20089411663432222</v>
+        <v>0.49680645394342166</v>
       </c>
       <c r="I109">
-        <v>9.1170637813221683E-2</v>
+        <v>1.1355567385282067E-3</v>
       </c>
       <c r="J109">
-        <v>0.9753611990962352</v>
+        <v>-0.86786062120081042</v>
       </c>
       <c r="K109">
-        <v>-1.9782273447175063</v>
+        <v>77.777462919157685</v>
       </c>
       <c r="L109">
-        <v>-4.8252912922212703</v>
+        <v>-106.66753211747665</v>
       </c>
       <c r="M109">
-        <v>0.64276502792524082</v>
+        <v>44.904839153261861</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.45">
@@ -5392,40 +5392,40 @@
         <v>127</v>
       </c>
       <c r="B110">
-        <v>-0.53311482706108582</v>
+        <v>-0.92404489149621016</v>
       </c>
       <c r="C110">
-        <v>-0.63040152531078464</v>
+        <v>0.29461295616868438</v>
       </c>
       <c r="D110">
-        <v>-0.56425393047232242</v>
+        <v>-0.243606741608902</v>
       </c>
       <c r="E110">
-        <v>-0.51531154520782863</v>
+        <v>0.28457637699138666</v>
       </c>
       <c r="F110">
-        <v>0.77089677109621257</v>
+        <v>0.95561598802471004</v>
       </c>
       <c r="G110">
-        <v>-0.37439575276564435</v>
+        <v>7.6252010399816578E-2</v>
       </c>
       <c r="H110">
-        <v>0.67100118669280184</v>
+        <v>0.2552593272697663</v>
       </c>
       <c r="I110">
-        <v>9.1170637813221628E-2</v>
+        <v>1.1355567385281913E-3</v>
       </c>
       <c r="J110">
-        <v>-0.73582968291417927</v>
+        <v>-0.96687195964754302</v>
       </c>
       <c r="K110">
-        <v>1.6827806898880566</v>
+        <v>86.749487726984299</v>
       </c>
       <c r="L110">
-        <v>-4.8252912922212703</v>
+        <v>-106.66753211747665</v>
       </c>
       <c r="M110">
-        <v>1.2226117365098728</v>
+        <v>23.244455180258971</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.45">
@@ -5433,40 +5433,40 @@
         <v>128</v>
       </c>
       <c r="B111">
-        <v>-0.33265827655120161</v>
+        <v>-0.95560888959042178</v>
       </c>
       <c r="C111">
-        <v>-0.63040152531078464</v>
+        <v>0.29461295616868438</v>
       </c>
       <c r="D111">
-        <v>-0.70137891893599169</v>
+        <v>3.8543732707581463E-3</v>
       </c>
       <c r="E111">
-        <v>-0.37439575276564452</v>
+        <v>0.29461514460658256</v>
       </c>
       <c r="F111">
-        <v>0.77089677109621269</v>
+        <v>0.95561598802471004</v>
       </c>
       <c r="G111">
-        <v>-0.51531154520782851</v>
+        <v>-4.1504362270855979E-15</v>
       </c>
       <c r="H111">
-        <v>0.86554392803198077</v>
+        <v>-3.6833007213528004E-3</v>
       </c>
       <c r="I111">
-        <v>9.1170637813221739E-2</v>
+        <v>1.1355567385281913E-3</v>
       </c>
       <c r="J111">
-        <v>-0.49246484488509401</v>
+        <v>-0.99999257187575641</v>
       </c>
       <c r="K111">
-        <v>1.2226117365098734</v>
+        <v>89.809678306523665</v>
       </c>
       <c r="L111">
-        <v>-4.8252912922212703</v>
+        <v>-106.66753211747665</v>
       </c>
       <c r="M111">
-        <v>1.6827806898880566</v>
+        <v>-1.2652737769259833E-12</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.45">
@@ -5474,40 +5474,40 @@
         <v>129</v>
       </c>
       <c r="B112">
-        <v>0.56425393047232264</v>
+        <v>0.79881437251074938</v>
       </c>
       <c r="C112">
-        <v>-0.63040152531078475</v>
+        <v>-0.11450829705563033</v>
       </c>
       <c r="D112">
-        <v>-0.53311482706108571</v>
+        <v>0.59057890935562307</v>
       </c>
       <c r="E112">
-        <v>0.37439575276564474</v>
+        <v>9.2642316505996955E-2</v>
       </c>
       <c r="F112">
-        <v>0.77089677109621269</v>
+        <v>0.99342184185229632</v>
       </c>
       <c r="G112">
-        <v>-0.51531154520782874</v>
+        <v>6.730858283453782E-2</v>
       </c>
       <c r="H112">
-        <v>0.73582968291417916</v>
+        <v>-0.5944013790887942</v>
       </c>
       <c r="I112">
-        <v>9.1170637813221683E-2</v>
+        <v>9.4553488073100401E-4</v>
       </c>
       <c r="J112">
-        <v>0.67100118669280218</v>
+        <v>0.80416795913610539</v>
       </c>
       <c r="K112">
-        <v>-1.2226117365098734</v>
+        <v>-55.288222465089213</v>
       </c>
       <c r="L112">
-        <v>-4.8252912922212703</v>
+        <v>-168.72156509340877</v>
       </c>
       <c r="M112">
-        <v>1.6827806898880562</v>
+        <v>-40.169244918707527</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.45">
@@ -5515,40 +5515,40 @@
         <v>130</v>
       </c>
       <c r="B113">
-        <v>-0.68138638386881722</v>
+        <v>0.94221653379688175</v>
       </c>
       <c r="C113">
-        <v>-0.63040152531078464</v>
+        <v>-0.11450829705563033</v>
       </c>
       <c r="D113">
-        <v>-0.37189583590571823</v>
+        <v>0.31482670367236892</v>
       </c>
       <c r="E113">
-        <v>-0.60578505321841536</v>
+        <v>0.10890757476087255</v>
       </c>
       <c r="F113">
-        <v>0.77089677109621257</v>
+        <v>0.99342184185229632</v>
       </c>
       <c r="G113">
-        <v>-0.19683149547416226</v>
+        <v>3.5386216108763559E-2</v>
       </c>
       <c r="H113">
-        <v>0.41077617405995981</v>
+        <v>-0.31680773917234883</v>
       </c>
       <c r="I113">
-        <v>9.1170637813221711E-2</v>
+        <v>9.4553488073100401E-4</v>
       </c>
       <c r="J113">
-        <v>-0.90716638475275957</v>
+        <v>0.9484893053505109</v>
       </c>
       <c r="K113">
-        <v>1.9782273447175067</v>
+        <v>-64.995203580889338</v>
       </c>
       <c r="L113">
-        <v>-4.8252912922212703</v>
+        <v>-168.72156509340877</v>
       </c>
       <c r="M113">
-        <v>0.64276502792524037</v>
+        <v>-21.118221804097463</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.45">
@@ -5556,40 +5556,40 @@
         <v>131</v>
       </c>
       <c r="B114">
-        <v>-0.7629590939253752</v>
+        <v>0.76984805201992756</v>
       </c>
       <c r="C114">
         <v>-0.63040152531078475</v>
       </c>
       <c r="D114">
-        <v>-0.14313398576999989</v>
+        <v>-9.963881616598555E-2</v>
       </c>
       <c r="E114">
-        <v>-0.63696009946733234</v>
+        <v>0.60578505321841569</v>
       </c>
       <c r="F114">
         <v>0.77089677109621269</v>
       </c>
       <c r="G114">
-        <v>8.977227381788424E-15</v>
+        <v>-0.19683149547416254</v>
       </c>
       <c r="H114">
-        <v>0.11034152746421849</v>
+        <v>0.20089411663432222</v>
       </c>
       <c r="I114">
         <v>9.1170637813221683E-2</v>
       </c>
       <c r="J114">
-        <v>-0.98970332025187902</v>
+        <v>0.9753611990962352</v>
       </c>
       <c r="K114">
-        <v>2.0800313239256303</v>
+        <v>-77.882810561528217</v>
       </c>
       <c r="L114">
-        <v>-4.8252912922212703</v>
+        <v>-189.9717181747514</v>
       </c>
       <c r="M114">
-        <v>-2.9332048152694861E-14</v>
+        <v>25.30565914941673</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.45">
@@ -5597,40 +5597,40 @@
         <v>132</v>
       </c>
       <c r="B115">
-        <v>-0.76984805201992601</v>
+        <v>0.70137891893599169</v>
       </c>
       <c r="C115">
-        <v>-0.63040152531078475</v>
+        <v>-0.63040152531078464</v>
       </c>
       <c r="D115">
-        <v>9.9638816165996485E-2</v>
+        <v>-0.33265827655120161</v>
       </c>
       <c r="E115">
-        <v>-0.60578505321841281</v>
+        <v>0.51531154520782851</v>
       </c>
       <c r="F115">
-        <v>0.77089677109621269</v>
+        <v>0.77089677109621257</v>
       </c>
       <c r="G115">
-        <v>0.19683149547417114</v>
+        <v>-0.37439575276564446</v>
       </c>
       <c r="H115">
-        <v>-0.20089411663433601</v>
+        <v>0.4924648448850939</v>
       </c>
       <c r="I115">
         <v>9.1170637813221683E-2</v>
       </c>
       <c r="J115">
-        <v>-0.9753611990962322</v>
+        <v>0.86554392803198066</v>
       </c>
       <c r="K115">
-        <v>1.9782273447174969</v>
+        <v>-66.251075760892789</v>
       </c>
       <c r="L115">
-        <v>-4.8252912922212703</v>
+        <v>-189.9717181747514</v>
       </c>
       <c r="M115">
-        <v>-0.64276502792526879</v>
+        <v>48.134224066393713</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.45">
@@ -5638,40 +5638,40 @@
         <v>133</v>
       </c>
       <c r="B116">
-        <v>-0.70137891893598692</v>
+        <v>0.56425393047232264</v>
       </c>
       <c r="C116">
-        <v>-0.63040152531078464</v>
+        <v>-0.63040152531078475</v>
       </c>
       <c r="D116">
-        <v>0.3326582765512115</v>
+        <v>-0.53311482706108571</v>
       </c>
       <c r="E116">
-        <v>-0.51531154520782319</v>
+        <v>0.37439575276564474</v>
       </c>
       <c r="F116">
         <v>0.77089677109621269</v>
       </c>
       <c r="G116">
-        <v>0.37439575276565179</v>
+        <v>-0.51531154520782874</v>
       </c>
       <c r="H116">
-        <v>-0.49246484488510622</v>
+        <v>0.73582968291417916</v>
       </c>
       <c r="I116">
         <v>9.1170637813221683E-2</v>
       </c>
       <c r="J116">
-        <v>-0.86554392803197377</v>
+        <v>0.67100118669280218</v>
       </c>
       <c r="K116">
-        <v>1.6827806898880393</v>
+        <v>-48.134224066393713</v>
       </c>
       <c r="L116">
-        <v>-4.8252912922212703</v>
+        <v>-189.9717181747514</v>
       </c>
       <c r="M116">
-        <v>-1.2226117365098974</v>
+        <v>66.251075760892761</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.45">
@@ -5679,40 +5679,40 @@
         <v>134</v>
       </c>
       <c r="B117">
-        <v>-0.5642539304723152</v>
+        <v>-0.33265827655120161</v>
       </c>
       <c r="C117">
         <v>-0.63040152531078464</v>
       </c>
       <c r="D117">
-        <v>0.53311482706109359</v>
+        <v>-0.70137891893599169</v>
       </c>
       <c r="E117">
-        <v>-0.37439575276563725</v>
+        <v>-0.37439575276564452</v>
       </c>
       <c r="F117">
         <v>0.77089677109621269</v>
       </c>
       <c r="G117">
-        <v>0.51531154520783384</v>
+        <v>-0.51531154520782851</v>
       </c>
       <c r="H117">
-        <v>-0.73582968291418871</v>
+        <v>0.86554392803198077</v>
       </c>
       <c r="I117">
         <v>9.1170637813221739E-2</v>
       </c>
       <c r="J117">
-        <v>-0.67100118669279185</v>
+        <v>-0.49246484488509401</v>
       </c>
       <c r="K117">
-        <v>1.2226117365098499</v>
+        <v>48.134224066393713</v>
       </c>
       <c r="L117">
-        <v>-4.8252912922212703</v>
+        <v>-189.9717181747514</v>
       </c>
       <c r="M117">
-        <v>-1.6827806898880737</v>
+        <v>66.251075760892789</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.45">
@@ -5720,40 +5720,40 @@
         <v>135</v>
       </c>
       <c r="B118">
-        <v>0.3326582765512115</v>
+        <v>-0.53311482706108582</v>
       </c>
       <c r="C118">
-        <v>-0.63040152531078475</v>
+        <v>-0.63040152531078464</v>
       </c>
       <c r="D118">
-        <v>0.70137891893598703</v>
+        <v>-0.56425393047232242</v>
       </c>
       <c r="E118">
-        <v>0.37439575276565196</v>
+        <v>-0.51531154520782863</v>
       </c>
       <c r="F118">
-        <v>0.77089677109621269</v>
+        <v>0.77089677109621257</v>
       </c>
       <c r="G118">
-        <v>0.51531154520782352</v>
+        <v>-0.37439575276564441</v>
       </c>
       <c r="H118">
-        <v>-0.86554392803197377</v>
+        <v>0.67100118669280184</v>
       </c>
       <c r="I118">
-        <v>9.1170637813221683E-2</v>
+        <v>9.11706378132216E-2</v>
       </c>
       <c r="J118">
-        <v>0.49246484488510617</v>
+        <v>-0.73582968291417927</v>
       </c>
       <c r="K118">
-        <v>-1.222611736509897</v>
+        <v>66.251075760892789</v>
       </c>
       <c r="L118">
-        <v>-4.8252912922212703</v>
+        <v>-189.9717181747514</v>
       </c>
       <c r="M118">
-        <v>-1.6827806898880391</v>
+        <v>48.134224066393685</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.45">
@@ -5761,40 +5761,40 @@
         <v>136</v>
       </c>
       <c r="B119">
-        <v>0.53311482706109359</v>
+        <v>-0.68138638386881722</v>
       </c>
       <c r="C119">
-        <v>-0.63040152531078475</v>
+        <v>-0.63040152531078464</v>
       </c>
       <c r="D119">
-        <v>0.56425393047231531</v>
+        <v>-0.37189583590571823</v>
       </c>
       <c r="E119">
-        <v>0.51531154520783407</v>
+        <v>-0.60578505321841536</v>
       </c>
       <c r="F119">
-        <v>0.77089677109621269</v>
+        <v>0.77089677109621257</v>
       </c>
       <c r="G119">
-        <v>0.37439575276563752</v>
+        <v>-0.19683149547416226</v>
       </c>
       <c r="H119">
-        <v>-0.67100118669279185</v>
+        <v>0.41077617405995981</v>
       </c>
       <c r="I119">
-        <v>9.1170637813221683E-2</v>
+        <v>9.1170637813221711E-2</v>
       </c>
       <c r="J119">
-        <v>0.7358296829141886</v>
+        <v>-0.90716638475275957</v>
       </c>
       <c r="K119">
-        <v>-1.6827806898880733</v>
+        <v>77.882810561528231</v>
       </c>
       <c r="L119">
-        <v>-4.8252912922212703</v>
+        <v>-189.9717181747514</v>
       </c>
       <c r="M119">
-        <v>-1.2226117365098499</v>
+        <v>25.305659149416712</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.45">
@@ -5802,40 +5802,40 @@
         <v>137</v>
       </c>
       <c r="B120">
-        <v>0.68138638386882233</v>
+        <v>-0.7629590939253752</v>
       </c>
       <c r="C120">
-        <v>-0.63040152531078464</v>
+        <v>-0.63040152531078475</v>
       </c>
       <c r="D120">
-        <v>0.3718958359057089</v>
+        <v>-0.14313398576999989</v>
       </c>
       <c r="E120">
-        <v>0.60578505321841802</v>
+        <v>-0.63696009946733234</v>
       </c>
       <c r="F120">
         <v>0.77089677109621269</v>
       </c>
       <c r="G120">
-        <v>0.19683149547415399</v>
+        <v>8.977227381788424E-15</v>
       </c>
       <c r="H120">
-        <v>-0.41077617405994743</v>
+        <v>0.11034152746421849</v>
       </c>
       <c r="I120">
         <v>9.1170637813221683E-2</v>
       </c>
       <c r="J120">
-        <v>0.90716638475276512</v>
+        <v>-0.98970332025187902</v>
       </c>
       <c r="K120">
-        <v>-1.9782273447175154</v>
+        <v>81.890833222952054</v>
       </c>
       <c r="L120">
-        <v>-4.8252912922212703</v>
+        <v>-189.9717181747514</v>
       </c>
       <c r="M120">
-        <v>-0.64276502792521339</v>
+        <v>-1.1548027357715967E-12</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.45">
@@ -5843,40 +5843,40 @@
         <v>138</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>-0.76984805201992601</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>-0.63040152531078475</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>9.9638816165996485E-2</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>-0.60578505321841281</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0.77089677109621269</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>0.19683149547417114</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>-0.20089411663433601</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>9.1170637813221683E-2</v>
       </c>
       <c r="J121">
-        <v>1</v>
+        <v>-0.9753611990962322</v>
       </c>
       <c r="K121">
-        <v>0.81562171454451615</v>
+        <v>77.882810561527847</v>
       </c>
       <c r="L121">
-        <v>-1.0915063740527167</v>
+        <v>-189.9717181747514</v>
       </c>
       <c r="M121">
-        <v>0</v>
+        <v>-25.305659149417831</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.45">
@@ -5884,40 +5884,40 @@
         <v>139</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>-0.70137891893598692</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>-0.63040152531078464</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>0.3326582765512115</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>-0.51531154520782319</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0.77089677109621269</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>0.37439575276565179</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>-0.49246484488510622</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>9.1170637813221683E-2</v>
       </c>
       <c r="J122">
-        <v>1</v>
+        <v>-0.86554392803197377</v>
       </c>
       <c r="K122">
-        <v>1.1053334157519137</v>
+        <v>66.251075760892107</v>
       </c>
       <c r="L122">
-        <v>-0.52685620642332776</v>
+        <v>-189.9717181747514</v>
       </c>
       <c r="M122">
-        <v>0</v>
+        <v>-48.134224066394658</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.45">
@@ -5925,40 +5925,40 @@
         <v>140</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>-0.5642539304723152</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>-0.63040152531078464</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>0.53311482706109359</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>-0.37439575276563725</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0.77089677109621269</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>0.51531154520783384</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>-0.73582968291418871</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>9.1170637813221739E-2</v>
       </c>
       <c r="J123">
-        <v>1</v>
+        <v>-0.67100118669279185</v>
       </c>
       <c r="K123">
-        <v>0.6664204456243894</v>
+        <v>48.13422406639279</v>
       </c>
       <c r="L123">
-        <v>-0.63999733598683495</v>
+        <v>-189.9717181747514</v>
       </c>
       <c r="M123">
-        <v>-1.0650852374898534</v>
+        <v>-66.251075760893457</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.45">
@@ -5966,40 +5966,40 @@
         <v>141</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>0.3326582765512115</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>-0.63040152531078475</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>0.70137891893598703</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>0.37439575276565196</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0.77089677109621269</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>0.51531154520782352</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>-0.86554392803197377</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>9.1170637813221683E-2</v>
       </c>
       <c r="J124">
-        <v>1</v>
+        <v>0.49246484488510617</v>
       </c>
       <c r="K124">
-        <v>0.44350593617868306</v>
+        <v>-48.134224066394637</v>
       </c>
       <c r="L124">
-        <v>-2.3027218493632513</v>
+        <v>-189.9717181747514</v>
       </c>
       <c r="M124">
-        <v>0</v>
+        <v>-66.251075760892093</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.45">
@@ -6007,40 +6007,40 @@
         <v>142</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0.53311482706109359</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>-0.63040152531078475</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>0.56425393047231531</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>0.51531154520783407</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0.77089677109621269</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>0.37439575276563752</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>-0.67100118669279185</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>9.1170637813221683E-2</v>
       </c>
       <c r="J125">
-        <v>1</v>
+        <v>0.7358296829141886</v>
       </c>
       <c r="K125">
-        <v>0.59399683645597623</v>
+        <v>-66.251075760893443</v>
       </c>
       <c r="L125">
-        <v>-1.6861870404885959</v>
+        <v>-189.9717181747514</v>
       </c>
       <c r="M125">
-        <v>0</v>
+        <v>-48.13422406639279</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.45">
@@ -6048,40 +6048,40 @@
         <v>143</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>0.68138638386882233</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>-0.63040152531078464</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>0.3718958359057089</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>0.60578505321841802</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0.77089677109621269</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>0.19683149547415399</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>-0.41077617405994743</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>9.1170637813221683E-2</v>
       </c>
       <c r="J126">
-        <v>1</v>
+        <v>0.90716638475276512</v>
       </c>
       <c r="K126">
-        <v>0.30886695651090612</v>
+        <v>-77.882810561528572</v>
       </c>
       <c r="L126">
-        <v>-1.4063636506358548</v>
+        <v>-189.9717181747514</v>
       </c>
       <c r="M126">
-        <v>-1.0650852374898534</v>
+        <v>-25.30565914941565</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.45">
@@ -6116,13 +6116,13 @@
         <v>1</v>
       </c>
       <c r="K127">
-        <v>0.92070570248284511</v>
+        <v>43.516976578152835</v>
       </c>
       <c r="L127">
-        <v>-0.30090651524483825</v>
+        <v>-20.742328846886412</v>
       </c>
       <c r="M127">
-        <v>-1.0650852374898534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.45">
@@ -6157,13 +6157,13 @@
         <v>1</v>
       </c>
       <c r="K128">
-        <v>0.21239075277774688</v>
+        <v>32.111026901617599</v>
       </c>
       <c r="L128">
-        <v>-1.8190813733959632</v>
+        <v>-42.972605946455452</v>
       </c>
       <c r="M128">
-        <v>-1.0650852374898534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.45">
@@ -6198,13 +6198,13 @@
         <v>1</v>
       </c>
       <c r="K129">
-        <v>0.46117459123023385</v>
+        <v>23.385655451271784</v>
       </c>
       <c r="L129">
-        <v>-1.0108311475804714</v>
+        <v>-66.385183784036016</v>
       </c>
       <c r="M129">
-        <v>-1.0650852374898534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.45">
@@ -6239,13 +6239,13 @@
         <v>1</v>
       </c>
       <c r="K130">
-        <v>-0.81562171454451604</v>
+        <v>17.46082870735475</v>
       </c>
       <c r="L130">
-        <v>-1.0915063740527167</v>
+        <v>-90.658159209431204</v>
       </c>
       <c r="M130">
-        <v>2.7755575615628914E-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.45">
@@ -6280,13 +6280,13 @@
         <v>1</v>
       </c>
       <c r="K131">
-        <v>-1.1053334157519137</v>
+        <v>36.248183506749612</v>
       </c>
       <c r="L131">
-        <v>-0.52685620642332776</v>
+        <v>-11.84668950518928</v>
       </c>
       <c r="M131">
-        <v>2.7755575615628914E-17</v>
+        <v>-41.932405799975527</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.45">
@@ -6321,13 +6321,13 @@
         <v>1</v>
       </c>
       <c r="K132">
-        <v>-0.920705702482845</v>
+        <v>26.23697294423221</v>
       </c>
       <c r="L132">
-        <v>-0.30090651524483825</v>
+        <v>-25.196695117801692</v>
       </c>
       <c r="M132">
-        <v>-1.0650852374898534</v>
+        <v>-41.932405799975527</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.45">
@@ -6362,13 +6362,13 @@
         <v>1</v>
       </c>
       <c r="K133">
-        <v>-0.66642044562438929</v>
+        <v>18.156443656734307</v>
       </c>
       <c r="L133">
-        <v>-0.63999733598683495</v>
+        <v>-39.796422280243156</v>
       </c>
       <c r="M133">
-        <v>-1.0650852374898534</v>
+        <v>-41.932405799975527</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.45">
@@ -6403,13 +6403,13 @@
         <v>1</v>
       </c>
       <c r="K134">
-        <v>-1.2192000000000001</v>
+        <v>12.160092077834372</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>-55.368536925533597</v>
       </c>
       <c r="M134">
-        <v>-1.0650852374898534</v>
+        <v>-41.932405799975527</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.45">
@@ -6444,13 +6444,13 @@
         <v>1</v>
       </c>
       <c r="K135">
-        <v>-0.46117459123023374</v>
+        <v>8.3618239368598939</v>
       </c>
       <c r="L135">
-        <v>-1.0108311475804714</v>
+        <v>-71.617233670599063</v>
       </c>
       <c r="M135">
-        <v>-1.0650852374898534</v>
+        <v>-41.932405799975527</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.45">
@@ -6485,13 +6485,13 @@
         <v>-1</v>
       </c>
       <c r="K136">
-        <v>0.920705702482845</v>
+        <v>47.999904000000001</v>
       </c>
       <c r="L136">
-        <v>-0.30090651524483825</v>
+        <v>0</v>
       </c>
       <c r="M136">
-        <v>1.0650852374898534</v>
+        <v>41.932405799975527</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.45">
@@ -6526,13 +6526,13 @@
         <v>-1</v>
       </c>
       <c r="K137">
-        <v>1.2192000000000001</v>
+        <v>36.248183506749605</v>
       </c>
       <c r="L137">
-        <v>0</v>
+        <v>-11.84668950518928</v>
       </c>
       <c r="M137">
-        <v>1.0650852374898534</v>
+        <v>41.932405799975527</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.45">
@@ -6540,40 +6540,40 @@
         <v>155</v>
       </c>
       <c r="B138">
-        <v>-0.79881437251074094</v>
+        <v>-1</v>
       </c>
       <c r="C138">
-        <v>-0.11450829705563033</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>-0.59057890935563451</v>
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>-9.2642316505996011E-2</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.99342184185229632</v>
+        <v>1</v>
       </c>
       <c r="G138">
-        <v>-6.7308582834539138E-2</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>0.59440137908880564</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>9.4553488073100401E-4</v>
+        <v>0</v>
       </c>
       <c r="J138">
-        <v>-0.80416795913609695</v>
+        <v>-1</v>
       </c>
       <c r="K138">
-        <v>1.4043236592605701</v>
+        <v>-3.2782110359619306E-15</v>
       </c>
       <c r="L138">
-        <v>-4.285536324445232</v>
+        <v>0</v>
       </c>
       <c r="M138">
-        <v>1.020300861536914</v>
+        <v>41.932405799975527</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.45">
@@ -6581,40 +6581,40 @@
         <v>156</v>
       </c>
       <c r="B139">
-        <v>-0.57721869477625209</v>
+        <v>-1</v>
       </c>
       <c r="C139">
-        <v>-0.11450829705563033</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>-0.80852113658593949</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>-6.7308582834539138E-2</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0.99342184185229632</v>
+        <v>1</v>
       </c>
       <c r="G139">
-        <v>-9.2642316505995997E-2</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>0.81381087058210633</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>9.4553488073100401E-4</v>
+        <v>0</v>
       </c>
       <c r="J139">
-        <v>-0.58112905011381366</v>
+        <v>-1</v>
       </c>
       <c r="K139">
-        <v>1.0203008615369142</v>
+        <v>-3.2782110359619306E-15</v>
       </c>
       <c r="L139">
-        <v>-4.285536324445232</v>
+        <v>-23.999952</v>
       </c>
       <c r="M139">
-        <v>1.4043236592605701</v>
+        <v>41.932405799975527</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.45">
@@ -6622,40 +6622,40 @@
         <v>157</v>
       </c>
       <c r="B140">
-        <v>0.5905789093556344</v>
+        <v>-1</v>
       </c>
       <c r="C140">
-        <v>-0.11450829705563033</v>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>-0.79881437251074106</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>6.7308582834539124E-2</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0.99342184185229632</v>
+        <v>1</v>
       </c>
       <c r="G140">
-        <v>-9.2642316505996025E-2</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>0.80416795913609707</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>9.4553488073100401E-4</v>
+        <v>0</v>
       </c>
       <c r="J140">
-        <v>0.59440137908880553</v>
+        <v>-1</v>
       </c>
       <c r="K140">
-        <v>-1.0203008615369138</v>
+        <v>-3.2782110359619306E-15</v>
       </c>
       <c r="L140">
-        <v>-4.285536324445232</v>
+        <v>-47.999904000000001</v>
       </c>
       <c r="M140">
-        <v>1.4043236592605703</v>
+        <v>41.932405799975534</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.45">
@@ -6663,40 +6663,40 @@
         <v>158</v>
       </c>
       <c r="B141">
-        <v>0.94731968166920955</v>
+        <v>-1</v>
       </c>
       <c r="C141">
-        <v>-0.11450829705563033</v>
+        <v>0</v>
       </c>
       <c r="D141">
-        <v>-0.29912082947793428</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>0.10890757476087205</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0.99342184185229632</v>
+        <v>1</v>
       </c>
       <c r="G141">
-        <v>-3.5386216108765078E-2</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>0.30120518070221325</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>9.4553488073100401E-4</v>
+        <v>0</v>
       </c>
       <c r="J141">
-        <v>0.95355888390908328</v>
+        <v>-1</v>
       </c>
       <c r="K141">
-        <v>-1.6508814727175272</v>
+        <v>-3.2782110359619306E-15</v>
       </c>
       <c r="L141">
-        <v>-4.285536324445232</v>
+        <v>-71.999856000000008</v>
       </c>
       <c r="M141">
-        <v>0.53640390663191184</v>
+        <v>41.932405799975534</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.45">
@@ -6704,40 +6704,40 @@
         <v>159</v>
       </c>
       <c r="B142">
-        <v>-0.99338797594636463</v>
+        <v>-1</v>
       </c>
       <c r="C142">
-        <v>-0.11450829705563033</v>
+        <v>0</v>
       </c>
       <c r="D142">
-        <v>-8.2570667070362511E-3</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>-0.11451220079446188</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>0.99342184185229632</v>
+        <v>1</v>
       </c>
       <c r="G142">
-        <v>1.6132518935449247E-15</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>8.2027504164010438E-3</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>9.4553488073100401E-4</v>
+        <v>0</v>
       </c>
       <c r="J142">
-        <v>-0.99996590984362832</v>
+        <v>-1</v>
       </c>
       <c r="K142">
-        <v>1.735839505257317</v>
+        <v>-3.2782110359619306E-15</v>
       </c>
       <c r="L142">
-        <v>-4.285536324445232</v>
+        <v>-95.999808000000002</v>
       </c>
       <c r="M142">
-        <v>-2.4456918712201144E-14</v>
+        <v>41.932405799975534</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.45">
@@ -6745,40 +6745,40 @@
         <v>160</v>
       </c>
       <c r="B143">
-        <v>-0.94221653379687742</v>
+        <v>-1</v>
       </c>
       <c r="C143">
-        <v>-0.11450829705563033</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>-0.3148267036723818</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>-0.10890757476087207</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>0.99342184185229632</v>
+        <v>1</v>
       </c>
       <c r="G143">
-        <v>-3.5386216108765051E-2</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>0.31680773917236177</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>9.4553488073100401E-4</v>
+        <v>0</v>
       </c>
       <c r="J143">
-        <v>-0.94848930535050657</v>
+        <v>-1</v>
       </c>
       <c r="K143">
-        <v>1.6508814727175274</v>
+        <v>-3.2782110359619306E-15</v>
       </c>
       <c r="L143">
-        <v>-4.285536324445232</v>
+        <v>-119.99975999999999</v>
       </c>
       <c r="M143">
-        <v>0.5364039066319114</v>
+        <v>41.932405799975534</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.45">
@@ -6786,40 +6786,40 @@
         <v>161</v>
       </c>
       <c r="B144">
-        <v>0.80852113658593971</v>
+        <v>-1</v>
       </c>
       <c r="C144">
-        <v>-0.11450829705563033</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>-0.57721869477625187</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>9.2642316505996025E-2</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.99342184185229632</v>
+        <v>1</v>
       </c>
       <c r="G144">
-        <v>-6.7308582834539124E-2</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>0.58112905011381344</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>9.4553488073100401E-4</v>
+        <v>0</v>
       </c>
       <c r="J144">
-        <v>0.81381087058210655</v>
+        <v>-1</v>
       </c>
       <c r="K144">
-        <v>-1.4043236592605703</v>
+        <v>-3.2782110359619306E-15</v>
       </c>
       <c r="L144">
-        <v>-4.285536324445232</v>
+        <v>0</v>
       </c>
       <c r="M144">
-        <v>1.0203008615369138</v>
+        <v>84.667212998728246</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.45">
@@ -6827,40 +6827,40 @@
         <v>162</v>
       </c>
       <c r="B145">
-        <v>-0.9473196816692051</v>
+        <v>-1</v>
       </c>
       <c r="C145">
-        <v>-0.11450829705563033</v>
+        <v>0</v>
       </c>
       <c r="D145">
-        <v>0.2991208294779476</v>
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>-0.10890757476087153</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>0.99342184185229632</v>
+        <v>1</v>
       </c>
       <c r="G145">
-        <v>3.5386216108766612E-2</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>-0.30120518070222668</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>9.4553488073100401E-4</v>
+        <v>0</v>
       </c>
       <c r="J145">
-        <v>-0.95355888390907884</v>
+        <v>-1</v>
       </c>
       <c r="K145">
-        <v>1.6508814727175192</v>
+        <v>-3.2782110359619306E-15</v>
       </c>
       <c r="L145">
-        <v>-4.285536324445232</v>
+        <v>-19.999959999999998</v>
       </c>
       <c r="M145">
-        <v>-0.53640390663193516</v>
+        <v>84.667212998728246</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.45">
@@ -6868,40 +6868,40 @@
         <v>163</v>
       </c>
       <c r="B146">
-        <v>-0.80852113658593183</v>
+        <v>-1</v>
       </c>
       <c r="C146">
-        <v>-0.11450829705563033</v>
+        <v>0</v>
       </c>
       <c r="D146">
-        <v>0.57721869477626331</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>-9.2642316505995095E-2</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0.99342184185229632</v>
+        <v>1</v>
       </c>
       <c r="G146">
-        <v>6.7308582834540429E-2</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>-0.58112905011382499</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>9.4553488073100401E-4</v>
+        <v>0</v>
       </c>
       <c r="J146">
-        <v>-0.81381087058209856</v>
+        <v>-1</v>
       </c>
       <c r="K146">
-        <v>1.4043236592605564</v>
+        <v>-3.2782110359619306E-15</v>
       </c>
       <c r="L146">
-        <v>-4.285536324445232</v>
+        <v>-39.999919999999996</v>
       </c>
       <c r="M146">
-        <v>-1.0203008615369338</v>
+        <v>84.667212998728246</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.45">
@@ -6909,40 +6909,40 @@
         <v>164</v>
       </c>
       <c r="B147">
-        <v>-0.59057890935562307</v>
+        <v>1</v>
       </c>
       <c r="C147">
-        <v>-0.11450829705563033</v>
+        <v>0</v>
       </c>
       <c r="D147">
-        <v>0.7988143725107496</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>-6.730858283453782E-2</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0.99342184185229632</v>
+        <v>1</v>
       </c>
       <c r="G147">
-        <v>9.2642316505996983E-2</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>-0.80416795913610561</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>9.4553488073100401E-4</v>
+        <v>0</v>
       </c>
       <c r="J147">
-        <v>-0.5944013790887942</v>
+        <v>1</v>
       </c>
       <c r="K147">
-        <v>1.0203008615368943</v>
+        <v>0</v>
       </c>
       <c r="L147">
-        <v>-4.285536324445232</v>
+        <v>-59.999879999999997</v>
       </c>
       <c r="M147">
-        <v>-1.404323659260585</v>
+        <v>-84.66721299872826</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.45">
@@ -6950,40 +6950,40 @@
         <v>165</v>
       </c>
       <c r="B148">
-        <v>0.5772186947762632</v>
+        <v>1</v>
       </c>
       <c r="C148">
-        <v>-0.11450829705563033</v>
+        <v>0</v>
       </c>
       <c r="D148">
-        <v>0.80852113658593172</v>
+        <v>0</v>
       </c>
       <c r="E148">
-        <v>6.7308582834540415E-2</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0.99342184185229632</v>
+        <v>1</v>
       </c>
       <c r="G148">
-        <v>9.2642316505995081E-2</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>-0.81381087058209844</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>9.4553488073100401E-4</v>
+        <v>0</v>
       </c>
       <c r="J148">
-        <v>0.58112905011382487</v>
+        <v>1</v>
       </c>
       <c r="K148">
-        <v>-1.0203008615369336</v>
+        <v>0</v>
       </c>
       <c r="L148">
-        <v>-4.285536324445232</v>
+        <v>-79.999839999999992</v>
       </c>
       <c r="M148">
-        <v>-1.4043236592605561</v>
+        <v>-84.66721299872826</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.45">
@@ -7018,13 +7018,13 @@
         <v>1</v>
       </c>
       <c r="K149">
-        <v>-0.59399683645597612</v>
+        <v>0</v>
       </c>
       <c r="L149">
-        <v>-1.6861870404885959</v>
+        <v>-143.99971200000002</v>
       </c>
       <c r="M149">
-        <v>2.7755575615628914E-17</v>
+        <v>-41.932405799975541</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.45">
@@ -7032,7 +7032,7 @@
         <v>167</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -7056,16 +7056,16 @@
         <v>0</v>
       </c>
       <c r="J150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K150">
-        <v>-0.44350593617868295</v>
+        <v>-3.2782110359619306E-15</v>
       </c>
       <c r="L150">
-        <v>-2.3027218493632513</v>
+        <v>-59.999879999999997</v>
       </c>
       <c r="M150">
-        <v>2.7755575615628914E-17</v>
+        <v>84.66721299872826</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.45">
@@ -7100,13 +7100,13 @@
         <v>-1</v>
       </c>
       <c r="K151">
-        <v>0.66642044562438929</v>
+        <v>-3.2782110359619306E-15</v>
       </c>
       <c r="L151">
-        <v>-0.63999733598683495</v>
+        <v>-79.999839999999992</v>
       </c>
       <c r="M151">
-        <v>1.0650852374898534</v>
+        <v>84.66721299872826</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.45">
@@ -7141,13 +7141,13 @@
         <v>-1</v>
       </c>
       <c r="K152">
-        <v>0.46117459123023374</v>
+        <v>-3.2782110359619306E-15</v>
       </c>
       <c r="L152">
-        <v>-1.0108311475804714</v>
+        <v>-143.99971200000002</v>
       </c>
       <c r="M152">
-        <v>1.0650852374898534</v>
+        <v>41.932405799975541</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.45">
@@ -7155,40 +7155,40 @@
         <v>170</v>
       </c>
       <c r="B153">
-        <v>-1</v>
+        <v>0.94731968166920955</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>-0.11450829705563033</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>-0.29912082947793428</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.10890757476087205</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.99342184185229632</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>-3.5386216108765078E-2</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>0.30120518070221325</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>9.4553488073100401E-4</v>
       </c>
       <c r="J153">
-        <v>-1</v>
+        <v>0.95355888390908328</v>
       </c>
       <c r="K153">
-        <v>0.30886695651090601</v>
+        <v>-64.99520358088904</v>
       </c>
       <c r="L153">
-        <v>-1.4063636506358548</v>
+        <v>-168.72156509340877</v>
       </c>
       <c r="M153">
-        <v>1.0650852374898534</v>
+        <v>21.118221804098368</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.45">
@@ -7196,40 +7196,40 @@
         <v>171</v>
       </c>
       <c r="B154">
-        <v>-1</v>
+        <v>0.80852113658593971</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>-0.11450829705563033</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>-0.57721869477625187</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>9.2642316505996025E-2</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.99342184185229632</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>-6.7308582834539124E-2</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>0.58112905011381344</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>9.4553488073100401E-4</v>
       </c>
       <c r="J154">
-        <v>-1</v>
+        <v>0.81381087058210655</v>
       </c>
       <c r="K154">
-        <v>0.2123907527777468</v>
+        <v>-55.288222465088651</v>
       </c>
       <c r="L154">
-        <v>-1.8190813733959632</v>
+        <v>-168.72156509340877</v>
       </c>
       <c r="M154">
-        <v>1.0650852374898534</v>
+        <v>40.169244918708294</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.45">
@@ -7237,40 +7237,40 @@
         <v>172</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>0.5905789093556344</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>-0.11450829705563033</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>-0.79881437251074106</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>6.7308582834539124E-2</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0.99342184185229632</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>-9.2642316505996025E-2</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>0.80416795913609707</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>9.4553488073100401E-4</v>
       </c>
       <c r="J155">
-        <v>1</v>
+        <v>0.59440137908880553</v>
       </c>
       <c r="K155">
-        <v>-0.30886695651090601</v>
+        <v>-40.169244918708294</v>
       </c>
       <c r="L155">
-        <v>-1.4063636506358548</v>
+        <v>-168.72156509340877</v>
       </c>
       <c r="M155">
-        <v>-1.0650852374898534</v>
+        <v>55.288222465088651</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.45">
@@ -7278,40 +7278,40 @@
         <v>173</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>-0.57721869477625209</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>-0.11450829705563033</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>-0.80852113658593949</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>-6.7308582834539138E-2</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0.99342184185229632</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>-9.2642316505995997E-2</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>0.81381087058210633</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>9.4553488073100401E-4</v>
       </c>
       <c r="J156">
-        <v>1</v>
+        <v>-0.58112905011381366</v>
       </c>
       <c r="K156">
-        <v>-0.2123907527777468</v>
+        <v>40.169244918708308</v>
       </c>
       <c r="L156">
-        <v>-1.8190813733959632</v>
+        <v>-168.72156509340877</v>
       </c>
       <c r="M156">
-        <v>-1.0650852374898534</v>
+        <v>55.288222465088644</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.45">
@@ -7319,40 +7319,40 @@
         <v>174</v>
       </c>
       <c r="B157">
-        <v>-1</v>
+        <v>-0.79881437251074094</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>-0.11450829705563033</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>-0.59057890935563451</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>-9.2642316505996011E-2</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.99342184185229632</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>-6.7308582834539138E-2</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>0.59440137908880564</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>9.4553488073100401E-4</v>
       </c>
       <c r="J157">
-        <v>-1</v>
+        <v>-0.80416795913609695</v>
       </c>
       <c r="K157">
-        <v>-1.2192000000000001</v>
+        <v>55.288222465088644</v>
       </c>
       <c r="L157">
-        <v>0</v>
+        <v>-168.72156509340877</v>
       </c>
       <c r="M157">
-        <v>1.0650852374898534</v>
+        <v>40.169244918708301</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.45">
@@ -7360,40 +7360,40 @@
         <v>175</v>
       </c>
       <c r="B158">
-        <v>-1</v>
+        <v>-0.94221653379687742</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>-0.11450829705563033</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>-0.3148267036723818</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>-0.10890757476087207</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0.99342184185229632</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>-3.5386216108765051E-2</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>0.31680773917236177</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>9.4553488073100401E-4</v>
       </c>
       <c r="J158">
-        <v>-1</v>
+        <v>-0.94848930535050657</v>
       </c>
       <c r="K158">
-        <v>-0.92070570248284511</v>
+        <v>64.995203580889054</v>
       </c>
       <c r="L158">
-        <v>-0.30090651524483825</v>
+        <v>-168.72156509340877</v>
       </c>
       <c r="M158">
-        <v>1.0650852374898534</v>
+        <v>21.118221804098351</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.45">
@@ -7401,40 +7401,40 @@
         <v>176</v>
       </c>
       <c r="B159">
-        <v>-1</v>
+        <v>-0.99338797594636463</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>-0.11450829705563033</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>-8.2570667070362511E-3</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>-0.11451220079446188</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0.99342184185229632</v>
       </c>
       <c r="G159">
-        <v>0</v>
+        <v>1.6132518935449247E-15</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>8.2027504164010438E-3</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>9.4553488073100401E-4</v>
       </c>
       <c r="J159">
-        <v>-1</v>
+        <v>-0.99996590984362832</v>
       </c>
       <c r="K159">
-        <v>-0.6664204456243894</v>
+        <v>68.340001321980566</v>
       </c>
       <c r="L159">
-        <v>-0.63999733598683495</v>
+        <v>-168.72156509340877</v>
       </c>
       <c r="M159">
-        <v>1.0650852374898534</v>
+        <v>-9.6286888969935903E-13</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.45">
@@ -7442,40 +7442,40 @@
         <v>177</v>
       </c>
       <c r="B160">
-        <v>-1</v>
+        <v>-0.9473196816692051</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>-0.11450829705563033</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>0.2991208294779476</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>-0.10890757476087153</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0.99342184185229632</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>3.5386216108766612E-2</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>-0.30120518070222668</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>9.4553488073100401E-4</v>
       </c>
       <c r="J160">
-        <v>-1</v>
+        <v>-0.95355888390907884</v>
       </c>
       <c r="K160">
-        <v>-0.46117459123023385</v>
+        <v>64.995203580888727</v>
       </c>
       <c r="L160">
-        <v>-1.0108311475804714</v>
+        <v>-168.72156509340877</v>
       </c>
       <c r="M160">
-        <v>1.0650852374898534</v>
+        <v>-21.118221804099285</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.45">
@@ -7483,40 +7483,40 @@
         <v>178</v>
       </c>
       <c r="B161">
-        <v>-1</v>
+        <v>-0.80852113658593183</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>-0.11450829705563033</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>0.57721869477626331</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>-9.2642316505995095E-2</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.99342184185229632</v>
       </c>
       <c r="G161">
-        <v>0</v>
+        <v>6.7308582834540429E-2</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>-0.58112905011382499</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>9.4553488073100401E-4</v>
       </c>
       <c r="J161">
-        <v>-1</v>
+        <v>-0.81381087058209856</v>
       </c>
       <c r="K161">
-        <v>-0.30886695651090612</v>
+        <v>55.288222465088097</v>
       </c>
       <c r="L161">
-        <v>-1.4063636506358548</v>
+        <v>-168.72156509340877</v>
       </c>
       <c r="M161">
-        <v>1.0650852374898534</v>
+        <v>-40.169244918709083</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.45">
@@ -7524,40 +7524,40 @@
         <v>179</v>
       </c>
       <c r="B162">
-        <v>-1</v>
+        <v>-0.59057890935562307</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>-0.11450829705563033</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>0.7988143725107496</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>-6.730858283453782E-2</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.99342184185229632</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>9.2642316505996983E-2</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>-0.80416795913610561</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>9.4553488073100401E-4</v>
       </c>
       <c r="J162">
-        <v>-1</v>
+        <v>-0.5944013790887942</v>
       </c>
       <c r="K162">
-        <v>-0.21239075277774688</v>
+        <v>40.169244918707527</v>
       </c>
       <c r="L162">
-        <v>-1.8190813733959632</v>
+        <v>-168.72156509340877</v>
       </c>
       <c r="M162">
-        <v>1.0650852374898534</v>
+        <v>-55.288222465089227</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.45">
@@ -7565,40 +7565,40 @@
         <v>180</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>0.5772186947762632</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>-0.11450829705563033</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>0.80852113658593172</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>6.7308582834540415E-2</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0.99342184185229632</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>9.2642316505995081E-2</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>-0.81381087058209844</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>9.4553488073100401E-4</v>
       </c>
       <c r="J163">
-        <v>1</v>
+        <v>0.58112905011382487</v>
       </c>
       <c r="K163">
-        <v>-1.4591486491345353</v>
+        <v>-40.169244918709069</v>
       </c>
       <c r="L163">
-        <v>0</v>
+        <v>-168.72156509340877</v>
       </c>
       <c r="M163">
-        <v>2.7755575615628914E-17</v>
+        <v>-55.28822246508809</v>
       </c>
     </row>
   </sheetData>
